--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -415,28 +415,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02371273637885762</v>
+        <v>0.02371273637907656</v>
       </c>
       <c r="D2">
-        <v>0.06402685653970286</v>
+        <v>0.06402685653971885</v>
       </c>
       <c r="E2">
-        <v>0.538799291403862</v>
+        <v>0.5387992914038975</v>
       </c>
       <c r="F2">
-        <v>3.472746167203042</v>
+        <v>3.472746167202956</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.490900089162707</v>
+        <v>2.490900089162636</v>
       </c>
       <c r="I2">
-        <v>0.4123180895422323</v>
+        <v>0.4123180895422465</v>
       </c>
       <c r="J2">
-        <v>23.75089512448255</v>
+        <v>23.75089512448261</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01418936195185871</v>
+        <v>0.01418936195144926</v>
       </c>
       <c r="D3">
-        <v>0.04179940132753579</v>
+        <v>0.04179940132733684</v>
       </c>
       <c r="E3">
-        <v>0.448782510498603</v>
+        <v>0.4487825104985959</v>
       </c>
       <c r="F3">
         <v>2.701884040882504</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.926754641551796</v>
+        <v>1.92675464155181</v>
       </c>
       <c r="I3">
-        <v>0.3367031284704893</v>
+        <v>0.3367031284705035</v>
       </c>
       <c r="J3">
-        <v>20.11422672253678</v>
+        <v>20.11422672253684</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.00982933041530698</v>
+        <v>0.009829330415390913</v>
       </c>
       <c r="D4">
-        <v>0.031157564962351</v>
+        <v>0.03115756496245581</v>
       </c>
       <c r="E4">
-        <v>0.397826032674125</v>
+        <v>0.3978260326741037</v>
       </c>
       <c r="F4">
-        <v>2.303163808380802</v>
+        <v>2.303163808380816</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.636075936867599</v>
+        <v>1.636075936867627</v>
       </c>
       <c r="I4">
-        <v>0.2950246338189544</v>
+        <v>0.2950246338189686</v>
       </c>
       <c r="J4">
-        <v>18.00139777644557</v>
+        <v>18.00139777644546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.008329246803405965</v>
+        <v>0.00832924680340108</v>
       </c>
       <c r="D5">
-        <v>0.02738007938443943</v>
+        <v>0.02738007938464992</v>
       </c>
       <c r="E5">
-        <v>0.3778639428772408</v>
+        <v>0.377863942877255</v>
       </c>
       <c r="F5">
-        <v>2.154761291948461</v>
+        <v>2.154761291948418</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.528133592198031</v>
+        <v>1.528133592197989</v>
       </c>
       <c r="I5">
-        <v>0.2789250237285756</v>
+        <v>0.2789250237285543</v>
       </c>
       <c r="J5">
-        <v>17.1626443502692</v>
+        <v>17.16264435026903</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.008094643897688325</v>
+        <v>0.008094643897874843</v>
       </c>
       <c r="D6">
-        <v>0.02678209134444209</v>
+        <v>0.02678209134445098</v>
       </c>
       <c r="E6">
-        <v>0.3745912277140206</v>
+        <v>0.3745912277140278</v>
       </c>
       <c r="F6">
-        <v>2.130861579753642</v>
+        <v>2.130861579753613</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0.2762979921750528</v>
       </c>
       <c r="J6">
-        <v>17.02452676130997</v>
+        <v>17.02452676131003</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.009808083696517311</v>
+        <v>0.009808083696519088</v>
       </c>
       <c r="D7">
-        <v>0.03110456751861967</v>
+        <v>0.03110456751862412</v>
       </c>
       <c r="E7">
-        <v>0.3975538703030068</v>
+        <v>0.3975538703030423</v>
       </c>
       <c r="F7">
-        <v>2.301110438882802</v>
+        <v>2.301110438882773</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.634581398470829</v>
+        <v>1.634581398470786</v>
       </c>
       <c r="I7">
-        <v>0.2948042603381822</v>
+        <v>0.2948042603381964</v>
       </c>
       <c r="J7">
-        <v>17.99000470095996</v>
+        <v>17.99000470095984</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02004902341276038</v>
+        <v>0.02004902341254011</v>
       </c>
       <c r="D8">
-        <v>0.05559510311055416</v>
+        <v>0.05559510311053373</v>
       </c>
       <c r="E8">
-        <v>0.5066615884225953</v>
+        <v>0.5066615884226167</v>
       </c>
       <c r="F8">
-        <v>3.188065547242019</v>
+        <v>3.188065547242047</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.282273957382159</v>
+        <v>2.282273957382188</v>
       </c>
       <c r="I8">
         <v>0.3850347813964063</v>
       </c>
       <c r="J8">
-        <v>22.46631891675611</v>
+        <v>22.46631891675617</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05986318265641</v>
+        <v>0.0598631826566125</v>
       </c>
       <c r="D9">
-        <v>0.1433740418046803</v>
+        <v>0.1433740418046749</v>
       </c>
       <c r="E9">
-        <v>0.7771469605871175</v>
+        <v>0.7771469605871033</v>
       </c>
       <c r="F9">
-        <v>5.892679644489732</v>
+        <v>5.892679644489647</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.273709269018227</v>
+        <v>4.273709269018156</v>
       </c>
       <c r="I9">
         <v>0.624446642246582</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D10">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E10">
         <v>1.096382356032791</v>
       </c>
       <c r="F10">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I10">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J10">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D11">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E11">
         <v>1.096382356032791</v>
       </c>
       <c r="F11">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I11">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J11">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D12">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E12">
         <v>1.096382356032791</v>
       </c>
       <c r="F12">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I12">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J12">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D13">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E13">
         <v>1.096382356032791</v>
       </c>
       <c r="F13">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I13">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J13">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D14">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E14">
         <v>1.096382356032791</v>
       </c>
       <c r="F14">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I14">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J14">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D15">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E15">
         <v>1.096382356032791</v>
       </c>
       <c r="F15">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I15">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J15">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D16">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E16">
         <v>1.096382356032791</v>
       </c>
       <c r="F16">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I16">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J16">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D17">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E17">
         <v>1.096382356032791</v>
       </c>
       <c r="F17">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I17">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J17">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D18">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E18">
         <v>1.096382356032791</v>
       </c>
       <c r="F18">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I18">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J18">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D19">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E19">
         <v>1.096382356032791</v>
       </c>
       <c r="F19">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I19">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J19">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D20">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E20">
         <v>1.096382356032791</v>
       </c>
       <c r="F20">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I20">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J20">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D21">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E21">
         <v>1.096382356032791</v>
       </c>
       <c r="F21">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I21">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J21">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D22">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E22">
         <v>1.096382356032791</v>
       </c>
       <c r="F22">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I22">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J22">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D23">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E23">
         <v>1.096382356032791</v>
       </c>
       <c r="F23">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I23">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J23">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D24">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E24">
         <v>1.096382356032791</v>
       </c>
       <c r="F24">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I24">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J24">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1329042086267478</v>
+        <v>0.1329042086269778</v>
       </c>
       <c r="D25">
-        <v>0.2949626587339456</v>
+        <v>0.2949626587340326</v>
       </c>
       <c r="E25">
         <v>1.096382356032791</v>
       </c>
       <c r="F25">
-        <v>9.922527579559784</v>
+        <v>9.922527579559812</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.264648265636495</v>
+        <v>7.264648265636524</v>
       </c>
       <c r="I25">
-        <v>0.9358010007879614</v>
+        <v>0.9358010007879116</v>
       </c>
       <c r="J25">
-        <v>43.58800597366007</v>
+        <v>43.58800597365996</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -415,28 +415,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02371273637907656</v>
+        <v>0.02371273637885762</v>
       </c>
       <c r="D2">
-        <v>0.06402685653971885</v>
+        <v>0.06402685653970286</v>
       </c>
       <c r="E2">
-        <v>0.5387992914038975</v>
+        <v>0.538799291403862</v>
       </c>
       <c r="F2">
-        <v>3.472746167202956</v>
+        <v>3.472746167203042</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.490900089162636</v>
+        <v>2.490900089162707</v>
       </c>
       <c r="I2">
-        <v>0.4123180895422465</v>
+        <v>0.4123180895422323</v>
       </c>
       <c r="J2">
-        <v>23.75089512448261</v>
+        <v>23.75089512448255</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01418936195144926</v>
+        <v>0.01418936195185871</v>
       </c>
       <c r="D3">
-        <v>0.04179940132733684</v>
+        <v>0.04179940132753579</v>
       </c>
       <c r="E3">
-        <v>0.4487825104985959</v>
+        <v>0.448782510498603</v>
       </c>
       <c r="F3">
         <v>2.701884040882504</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.92675464155181</v>
+        <v>1.926754641551796</v>
       </c>
       <c r="I3">
-        <v>0.3367031284705035</v>
+        <v>0.3367031284704893</v>
       </c>
       <c r="J3">
-        <v>20.11422672253684</v>
+        <v>20.11422672253678</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.009829330415390913</v>
+        <v>0.00982933041530698</v>
       </c>
       <c r="D4">
-        <v>0.03115756496245581</v>
+        <v>0.031157564962351</v>
       </c>
       <c r="E4">
-        <v>0.3978260326741037</v>
+        <v>0.397826032674125</v>
       </c>
       <c r="F4">
-        <v>2.303163808380816</v>
+        <v>2.303163808380802</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.636075936867627</v>
+        <v>1.636075936867599</v>
       </c>
       <c r="I4">
-        <v>0.2950246338189686</v>
+        <v>0.2950246338189544</v>
       </c>
       <c r="J4">
-        <v>18.00139777644546</v>
+        <v>18.00139777644557</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.00832924680340108</v>
+        <v>0.008329246803405965</v>
       </c>
       <c r="D5">
-        <v>0.02738007938464992</v>
+        <v>0.02738007938443943</v>
       </c>
       <c r="E5">
-        <v>0.377863942877255</v>
+        <v>0.3778639428772408</v>
       </c>
       <c r="F5">
-        <v>2.154761291948418</v>
+        <v>2.154761291948461</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.528133592197989</v>
+        <v>1.528133592198031</v>
       </c>
       <c r="I5">
-        <v>0.2789250237285543</v>
+        <v>0.2789250237285756</v>
       </c>
       <c r="J5">
-        <v>17.16264435026903</v>
+        <v>17.1626443502692</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.008094643897874843</v>
+        <v>0.008094643897688325</v>
       </c>
       <c r="D6">
-        <v>0.02678209134445098</v>
+        <v>0.02678209134444209</v>
       </c>
       <c r="E6">
-        <v>0.3745912277140278</v>
+        <v>0.3745912277140206</v>
       </c>
       <c r="F6">
-        <v>2.130861579753613</v>
+        <v>2.130861579753642</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0.2762979921750528</v>
       </c>
       <c r="J6">
-        <v>17.02452676131003</v>
+        <v>17.02452676130997</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.009808083696519088</v>
+        <v>0.009808083696517311</v>
       </c>
       <c r="D7">
-        <v>0.03110456751862412</v>
+        <v>0.03110456751861967</v>
       </c>
       <c r="E7">
-        <v>0.3975538703030423</v>
+        <v>0.3975538703030068</v>
       </c>
       <c r="F7">
-        <v>2.301110438882773</v>
+        <v>2.301110438882802</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.634581398470786</v>
+        <v>1.634581398470829</v>
       </c>
       <c r="I7">
-        <v>0.2948042603381964</v>
+        <v>0.2948042603381822</v>
       </c>
       <c r="J7">
-        <v>17.99000470095984</v>
+        <v>17.99000470095996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02004902341254011</v>
+        <v>0.02004902341276038</v>
       </c>
       <c r="D8">
-        <v>0.05559510311053373</v>
+        <v>0.05559510311055416</v>
       </c>
       <c r="E8">
-        <v>0.5066615884226167</v>
+        <v>0.5066615884225953</v>
       </c>
       <c r="F8">
-        <v>3.188065547242047</v>
+        <v>3.188065547242019</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.282273957382188</v>
+        <v>2.282273957382159</v>
       </c>
       <c r="I8">
         <v>0.3850347813964063</v>
       </c>
       <c r="J8">
-        <v>22.46631891675617</v>
+        <v>22.46631891675611</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0598631826566125</v>
+        <v>0.05986318265641</v>
       </c>
       <c r="D9">
-        <v>0.1433740418046749</v>
+        <v>0.1433740418046803</v>
       </c>
       <c r="E9">
-        <v>0.7771469605871033</v>
+        <v>0.7771469605871175</v>
       </c>
       <c r="F9">
-        <v>5.892679644489647</v>
+        <v>5.892679644489732</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.273709269018156</v>
+        <v>4.273709269018227</v>
       </c>
       <c r="I9">
         <v>0.624446642246582</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D10">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E10">
         <v>1.096382356032791</v>
       </c>
       <c r="F10">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I10">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J10">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D11">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E11">
         <v>1.096382356032791</v>
       </c>
       <c r="F11">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I11">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J11">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D12">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E12">
         <v>1.096382356032791</v>
       </c>
       <c r="F12">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I12">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J12">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D13">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E13">
         <v>1.096382356032791</v>
       </c>
       <c r="F13">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I13">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J13">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D14">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E14">
         <v>1.096382356032791</v>
       </c>
       <c r="F14">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I14">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J14">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D15">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E15">
         <v>1.096382356032791</v>
       </c>
       <c r="F15">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I15">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J15">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D16">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E16">
         <v>1.096382356032791</v>
       </c>
       <c r="F16">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I16">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J16">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D17">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E17">
         <v>1.096382356032791</v>
       </c>
       <c r="F17">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I17">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J17">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D18">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E18">
         <v>1.096382356032791</v>
       </c>
       <c r="F18">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I18">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J18">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D19">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E19">
         <v>1.096382356032791</v>
       </c>
       <c r="F19">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I19">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J19">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D20">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E20">
         <v>1.096382356032791</v>
       </c>
       <c r="F20">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I20">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J20">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D21">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E21">
         <v>1.096382356032791</v>
       </c>
       <c r="F21">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I21">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J21">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D22">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E22">
         <v>1.096382356032791</v>
       </c>
       <c r="F22">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I22">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J22">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D23">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E23">
         <v>1.096382356032791</v>
       </c>
       <c r="F23">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I23">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J23">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D24">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E24">
         <v>1.096382356032791</v>
       </c>
       <c r="F24">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I24">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J24">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1329042086269778</v>
+        <v>0.1329042086267478</v>
       </c>
       <c r="D25">
-        <v>0.2949626587340326</v>
+        <v>0.2949626587339456</v>
       </c>
       <c r="E25">
         <v>1.096382356032791</v>
       </c>
       <c r="F25">
-        <v>9.922527579559812</v>
+        <v>9.922527579559784</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.264648265636524</v>
+        <v>7.264648265636495</v>
       </c>
       <c r="I25">
-        <v>0.9358010007879116</v>
+        <v>0.9358010007879614</v>
       </c>
       <c r="J25">
-        <v>43.58800597365996</v>
+        <v>43.58800597366007</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02371273637885762</v>
+        <v>0.02087467717530878</v>
       </c>
       <c r="D2">
-        <v>0.06402685653970286</v>
+        <v>0.05721152113103356</v>
       </c>
       <c r="E2">
-        <v>0.538799291403862</v>
+        <v>0.534654495588363</v>
       </c>
       <c r="F2">
-        <v>3.472746167203042</v>
+        <v>3.390264025081137</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006373066667634574</v>
       </c>
       <c r="H2">
-        <v>2.490900089162707</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4123180895422323</v>
+        <v>2.427488618359632</v>
       </c>
       <c r="J2">
-        <v>23.75089512448255</v>
+        <v>0.4077122849986097</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>23.60939841021064</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01418936195185871</v>
+        <v>0.01206625016700702</v>
       </c>
       <c r="D3">
-        <v>0.04179940132753579</v>
+        <v>0.03644627948940737</v>
       </c>
       <c r="E3">
-        <v>0.448782510498603</v>
+        <v>0.4455494676188323</v>
       </c>
       <c r="F3">
-        <v>2.701884040882504</v>
+        <v>2.643835212613183</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006653693979066251</v>
       </c>
       <c r="H3">
-        <v>1.926754641551796</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3367031284704893</v>
+        <v>1.881875345601571</v>
       </c>
       <c r="J3">
-        <v>20.11422672253678</v>
+        <v>0.3332313087532697</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.00274516925299</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.00982933041530698</v>
+        <v>0.008100970406830221</v>
       </c>
       <c r="D4">
-        <v>0.031157564962351</v>
+        <v>0.02661513273267424</v>
       </c>
       <c r="E4">
-        <v>0.397826032674125</v>
+        <v>0.3950493026287205</v>
       </c>
       <c r="F4">
-        <v>2.303163808380802</v>
+        <v>2.258216594246804</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000681997394601768</v>
       </c>
       <c r="H4">
-        <v>1.636075936867599</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2950246338189544</v>
+        <v>1.601150342758771</v>
       </c>
       <c r="J4">
-        <v>18.00139777644557</v>
+        <v>0.2921285432991709</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.90565873320145</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.008329246803405965</v>
+        <v>0.006754599983292309</v>
       </c>
       <c r="D5">
-        <v>0.02738007938443943</v>
+        <v>0.02315394618623312</v>
       </c>
       <c r="E5">
-        <v>0.3778639428772408</v>
+        <v>0.3752557373847694</v>
       </c>
       <c r="F5">
-        <v>2.154761291948461</v>
+        <v>2.114841567615187</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006886828891406888</v>
       </c>
       <c r="H5">
-        <v>1.528133592198031</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2789250237285756</v>
+        <v>1.497030799747193</v>
       </c>
       <c r="J5">
-        <v>17.1626443502692</v>
+        <v>0.2762434661968953</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.07286932963194</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.008094643897688325</v>
+        <v>0.006545173912545721</v>
       </c>
       <c r="D6">
-        <v>0.02678209134444209</v>
+        <v>0.02260779778687194</v>
       </c>
       <c r="E6">
-        <v>0.3745912277140206</v>
+        <v>0.3720101335957509</v>
       </c>
       <c r="F6">
-        <v>2.130861579753642</v>
+        <v>2.091761388479995</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006897889644864077</v>
       </c>
       <c r="H6">
-        <v>1.510764046945994</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2762979921750528</v>
+        <v>1.480284587649123</v>
       </c>
       <c r="J6">
-        <v>17.02452676130997</v>
+        <v>0.2736510599474684</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.93571957525313</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.009808083696517311</v>
+        <v>0.008081821669480238</v>
       </c>
       <c r="D7">
-        <v>0.03110456751861967</v>
+        <v>0.02656645002972269</v>
       </c>
       <c r="E7">
-        <v>0.3975538703030068</v>
+        <v>0.3947794750557776</v>
       </c>
       <c r="F7">
-        <v>2.301110438882802</v>
+        <v>2.256232121482626</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006820878577851186</v>
       </c>
       <c r="H7">
-        <v>1.634581398470829</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2948042603381822</v>
+        <v>1.599708179558206</v>
       </c>
       <c r="J7">
-        <v>17.99000470095996</v>
+        <v>0.2919111342166332</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.89434769233856</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02004902341276038</v>
+        <v>0.01746972235565059</v>
       </c>
       <c r="D8">
-        <v>0.05559510311055416</v>
+        <v>0.04930806446020952</v>
       </c>
       <c r="E8">
-        <v>0.5066615884225953</v>
+        <v>0.5028593675793829</v>
       </c>
       <c r="F8">
-        <v>3.188065547242019</v>
+        <v>3.114531302433505</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006471518109141223</v>
       </c>
       <c r="H8">
-        <v>2.282273957382159</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3850347813964063</v>
+        <v>2.225644894594723</v>
       </c>
       <c r="J8">
-        <v>22.46631891675611</v>
+        <v>0.3808529751004102</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.3359031091511</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05986318265641</v>
+        <v>0.05486565932150089</v>
       </c>
       <c r="D9">
-        <v>0.1433740418046803</v>
+        <v>0.13219091000955</v>
       </c>
       <c r="E9">
-        <v>0.7771469605871175</v>
+        <v>0.7696176436087399</v>
       </c>
       <c r="F9">
-        <v>5.892679644489732</v>
+        <v>5.731164838602638</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005691270329522202</v>
       </c>
       <c r="H9">
-        <v>4.273709269018227</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.624446642246582</v>
+        <v>4.150572792507518</v>
       </c>
       <c r="J9">
-        <v>32.80823108485072</v>
+        <v>0.6157271266391291</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>32.5657363913711</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1329042086267478</v>
+        <v>0.1231151638762977</v>
       </c>
       <c r="D10">
-        <v>0.2949626587339456</v>
+        <v>0.2743024834680217</v>
       </c>
       <c r="E10">
-        <v>1.096382356032791</v>
+        <v>1.078919184726104</v>
       </c>
       <c r="F10">
-        <v>9.922527579559784</v>
+        <v>9.566934188648702</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004886482710197517</v>
       </c>
       <c r="H10">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9358010007879614</v>
+        <v>6.995622157216175</v>
       </c>
       <c r="J10">
-        <v>43.58800597366007</v>
+        <v>0.9152887307374229</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>43.08742126485009</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D11">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E11">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F11">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H11">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J11">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D12">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E12">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F12">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H12">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J12">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D13">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E13">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F13">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H13">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J13">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D14">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E14">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F14">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H14">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J14">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D15">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E15">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F15">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H15">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J15">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D16">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E16">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F16">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H16">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J16">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D17">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E17">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F17">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H17">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J17">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D18">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E18">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F18">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H18">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J18">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D19">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E19">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F19">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H19">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J19">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D20">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E20">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F20">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H20">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J20">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D21">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E21">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F21">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H21">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J21">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D22">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E22">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F22">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H22">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J22">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D23">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E23">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F23">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H23">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J23">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D24">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E24">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F24">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H24">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J24">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1329042086267478</v>
+        <v>0.2216686947848636</v>
       </c>
       <c r="D25">
-        <v>0.2949626587339456</v>
+        <v>0.4706719267718587</v>
       </c>
       <c r="E25">
-        <v>1.096382356032791</v>
+        <v>1.399612252882264</v>
       </c>
       <c r="F25">
-        <v>9.922527579559784</v>
+        <v>14.34222062833717</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004142806215341558</v>
       </c>
       <c r="H25">
-        <v>7.264648265636495</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9358010007879614</v>
+        <v>10.5571601942097</v>
       </c>
       <c r="J25">
-        <v>43.58800597366007</v>
+        <v>1.257909915428165</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>52.24669147681499</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02087467717530878</v>
+        <v>0.1011392331074674</v>
       </c>
       <c r="D2">
-        <v>0.05721152113103356</v>
+        <v>0.3591062653964912</v>
       </c>
       <c r="E2">
-        <v>0.534654495588363</v>
+        <v>0.01793411233627085</v>
       </c>
       <c r="F2">
-        <v>3.390264025081137</v>
+        <v>7.128934658702946</v>
       </c>
       <c r="G2">
-        <v>0.0006373066667634574</v>
+        <v>0.0007233973091258431</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.427488618359632</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4077122849986097</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>23.60939841021064</v>
+        <v>7.847345980975689</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06697332094402242</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>5.157563690351083</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01206625016700702</v>
+        <v>0.0954835333816817</v>
       </c>
       <c r="D3">
-        <v>0.03644627948940737</v>
+        <v>0.3136103233864276</v>
       </c>
       <c r="E3">
-        <v>0.4455494676188323</v>
+        <v>0.01877423193866923</v>
       </c>
       <c r="F3">
-        <v>2.643835212613183</v>
+        <v>6.089908919548861</v>
       </c>
       <c r="G3">
-        <v>0.0006653693979066251</v>
+        <v>0.0007521236869677802</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.881875345601571</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3332313087532697</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>20.00274516925299</v>
+        <v>6.65603072015827</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05922486915506298</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.385882733806454</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008100970406830221</v>
+        <v>0.09263547938252259</v>
       </c>
       <c r="D4">
-        <v>0.02661513273267424</v>
+        <v>0.2902464021259874</v>
       </c>
       <c r="E4">
-        <v>0.3950493026287205</v>
+        <v>0.01929422219872379</v>
       </c>
       <c r="F4">
-        <v>2.258216594246804</v>
+        <v>5.521192465213772</v>
       </c>
       <c r="G4">
-        <v>0.000681997394601768</v>
+        <v>0.0007694369992198868</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.601150342758771</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2921285432991709</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>17.90565873320145</v>
+        <v>5.965940038784822</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0546433267944515</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.940043472787437</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.006754599983292309</v>
+        <v>0.09160327641473742</v>
       </c>
       <c r="D5">
-        <v>0.02315394618623312</v>
+        <v>0.2816326566580187</v>
       </c>
       <c r="E5">
-        <v>0.3752557373847694</v>
+        <v>0.01950784035472397</v>
       </c>
       <c r="F5">
-        <v>2.114841567615187</v>
+        <v>5.303120860736271</v>
       </c>
       <c r="G5">
-        <v>0.0006886828891406888</v>
+        <v>0.0007764547629307263</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.497030799747193</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2762434661968953</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>17.07286932963194</v>
+        <v>5.692743938793654</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05280906419788067</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.763802296563611</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.006545173912545721</v>
+        <v>0.09143894298686916</v>
       </c>
       <c r="D6">
-        <v>0.02260779778687194</v>
+        <v>0.2802513330232443</v>
       </c>
       <c r="E6">
-        <v>0.3720101335957509</v>
+        <v>0.01954343202738684</v>
       </c>
       <c r="F6">
-        <v>2.091761388479995</v>
+        <v>5.26764684054865</v>
       </c>
       <c r="G6">
-        <v>0.0006897889644864077</v>
+        <v>0.0007776188567061304</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.480284587649123</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2736510599474684</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>16.93571957525313</v>
+        <v>5.647806680334867</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05250618661094109</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.734827697026702</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008081821669480238</v>
+        <v>0.09262107099261385</v>
       </c>
       <c r="D7">
-        <v>0.02656645002972269</v>
+        <v>0.2901268310736214</v>
       </c>
       <c r="E7">
-        <v>0.3947794750557776</v>
+        <v>0.01929709539556068</v>
       </c>
       <c r="F7">
-        <v>2.256232121482626</v>
+        <v>5.518200244912322</v>
       </c>
       <c r="G7">
-        <v>0.0006820878577851186</v>
+        <v>0.0007695317456651697</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.599708179558206</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2919111342166332</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>17.89434769233856</v>
+        <v>5.962225823724566</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.054618469586174</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.937646379890779</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01746972235565059</v>
+        <v>0.09903940781841669</v>
       </c>
       <c r="D8">
-        <v>0.04930806446020952</v>
+        <v>0.342299864272249</v>
       </c>
       <c r="E8">
-        <v>0.5028593675793829</v>
+        <v>0.01822338498812437</v>
       </c>
       <c r="F8">
-        <v>3.114531302433505</v>
+        <v>6.753685799971493</v>
       </c>
       <c r="G8">
-        <v>0.0006471518109141223</v>
+        <v>0.0007334005146912556</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.225644894594723</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3808529751004102</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>22.3359031091511</v>
+        <v>7.426321124749308</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06425703200864064</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.884565639611708</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05486565932150089</v>
+        <v>0.1185784331024138</v>
       </c>
       <c r="D9">
-        <v>0.13219091000955</v>
+        <v>0.4979957725371946</v>
       </c>
       <c r="E9">
-        <v>0.7696176436087399</v>
+        <v>0.01610734564071281</v>
       </c>
       <c r="F9">
-        <v>5.731164838602638</v>
+        <v>9.986771944467705</v>
       </c>
       <c r="G9">
-        <v>0.0005691270329522202</v>
+        <v>0.0006569025468146084</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.150572792507518</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6157271266391291</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>32.5657363913711</v>
+        <v>10.79099089522859</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08535885765746087</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7.073839280372852</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1231151638762977</v>
+        <v>0.1426178419745696</v>
       </c>
       <c r="D10">
-        <v>0.2743024834680217</v>
+        <v>0.6926097208365718</v>
       </c>
       <c r="E10">
-        <v>1.078919184726104</v>
+        <v>0.0144431146023134</v>
       </c>
       <c r="F10">
-        <v>9.566934188648702</v>
+        <v>13.57181530662189</v>
       </c>
       <c r="G10">
-        <v>0.0004886482710197517</v>
+        <v>0.0005889084307147026</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.995622157216175</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9152887307374229</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>43.08742126485009</v>
+        <v>14.01060642143872</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1044042934870362</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>9.183344364132921</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2216686947848636</v>
+        <v>0.1593021487663577</v>
       </c>
       <c r="D11">
-        <v>0.4706719267718587</v>
+        <v>0.8313316670343909</v>
       </c>
       <c r="E11">
-        <v>1.399612252882264</v>
+        <v>0.01360737020603198</v>
       </c>
       <c r="F11">
-        <v>14.34222062833717</v>
+        <v>15.9487513483927</v>
       </c>
       <c r="G11">
-        <v>0.0004142806215341558</v>
+        <v>0.0005498222119872942</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>52.24669147681499</v>
+        <v>15.93401799958048</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1153265196222648</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10.44978893103163</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2216686947848636</v>
+        <v>0.1675230583623915</v>
       </c>
       <c r="D12">
-        <v>0.4706719267718587</v>
+        <v>0.9009495533606469</v>
       </c>
       <c r="E12">
-        <v>1.399612252882264</v>
+        <v>0.01326703661900597</v>
       </c>
       <c r="F12">
-        <v>14.34222062833717</v>
+        <v>17.09991587986957</v>
       </c>
       <c r="G12">
-        <v>0.0004142806215341558</v>
+        <v>0.0005321918655373253</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>52.24669147681499</v>
+        <v>16.81548425311445</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1202334437557937</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11.03166864581289</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2216686947848636</v>
+        <v>0.165624493650995</v>
       </c>
       <c r="D13">
-        <v>0.4706719267718587</v>
+        <v>0.8847939725618232</v>
       </c>
       <c r="E13">
-        <v>1.399612252882264</v>
+        <v>0.01334181687390412</v>
       </c>
       <c r="F13">
-        <v>14.34222062833717</v>
+        <v>16.83500151281373</v>
       </c>
       <c r="G13">
-        <v>0.0004142806215341558</v>
+        <v>0.0005361816922682943</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>52.24669147681499</v>
+        <v>16.61532384177121</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1191241769617193</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10.89945657014988</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2216686947848636</v>
+        <v>0.1599264345272644</v>
       </c>
       <c r="D14">
-        <v>0.4706719267718587</v>
+        <v>0.8365879771589277</v>
       </c>
       <c r="E14">
-        <v>1.399612252882264</v>
+        <v>0.01357998795360871</v>
       </c>
       <c r="F14">
-        <v>14.34222062833717</v>
+        <v>16.03656064240175</v>
       </c>
       <c r="G14">
-        <v>0.0004142806215341558</v>
+        <v>0.0005484499191821257</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>52.24669147681499</v>
+        <v>16.00234256292157</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1157089443712067</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10.49485877488874</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2216686947848636</v>
+        <v>0.1567487238665706</v>
       </c>
       <c r="D15">
-        <v>0.4706719267718587</v>
+        <v>0.8098834096471421</v>
       </c>
       <c r="E15">
-        <v>1.399612252882264</v>
+        <v>0.01372210426210385</v>
       </c>
       <c r="F15">
-        <v>14.34222062833717</v>
+        <v>15.58885925900734</v>
       </c>
       <c r="G15">
-        <v>0.0004142806215341558</v>
+        <v>0.0005554963576755939</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>52.24669147681499</v>
+        <v>15.65204702699936</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1137444310034894</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10.26384787077561</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2216686947848636</v>
+        <v>0.1417013667389426</v>
       </c>
       <c r="D16">
-        <v>0.4706719267718587</v>
+        <v>0.6850835461947611</v>
       </c>
       <c r="E16">
-        <v>1.399612252882264</v>
+        <v>0.01449539006915845</v>
       </c>
       <c r="F16">
-        <v>14.34222062833717</v>
+        <v>13.43924206790325</v>
       </c>
       <c r="G16">
-        <v>0.0004142806215341558</v>
+        <v>0.0005912092661211221</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>52.24669147681499</v>
+        <v>13.89885639472598</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1037599000124914</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9.109903724596904</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2216686947848636</v>
+        <v>0.1343223327706511</v>
       </c>
       <c r="D17">
-        <v>0.4706719267718587</v>
+        <v>0.6248176690918399</v>
       </c>
       <c r="E17">
-        <v>1.399612252882264</v>
+        <v>0.01494438305646906</v>
       </c>
       <c r="F17">
-        <v>14.34222062833717</v>
+        <v>12.36208942680821</v>
       </c>
       <c r="G17">
-        <v>0.0004142806215341558</v>
+        <v>0.000610446317228198</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>52.24669147681499</v>
+        <v>12.97163268966045</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09836882326444396</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8.501148094700227</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2216686947848636</v>
+        <v>0.1305324090947835</v>
       </c>
       <c r="D18">
-        <v>0.4706719267718587</v>
+        <v>0.5940834515574522</v>
       </c>
       <c r="E18">
-        <v>1.399612252882264</v>
+        <v>0.01519625976873717</v>
       </c>
       <c r="F18">
-        <v>14.34222062833717</v>
+        <v>11.80117587626091</v>
       </c>
       <c r="G18">
-        <v>0.0004142806215341558</v>
+        <v>0.0006208768367592773</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>52.24669147681499</v>
+        <v>12.47447799331636</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09544468819263585</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>8.175197013776938</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2216686947848636</v>
+        <v>0.1293137530088586</v>
       </c>
       <c r="D19">
-        <v>0.4706719267718587</v>
+        <v>0.5842305819389537</v>
       </c>
       <c r="E19">
-        <v>1.399612252882264</v>
+        <v>0.01528064204302515</v>
       </c>
       <c r="F19">
-        <v>14.34222062833717</v>
+        <v>11.61954162398354</v>
       </c>
       <c r="G19">
-        <v>0.0004142806215341558</v>
+        <v>0.0006243201999458273</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>52.24669147681499</v>
+        <v>12.31126627065268</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09447945998964258</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8.06825920495757</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2216686947848636</v>
+        <v>0.1350572884798993</v>
       </c>
       <c r="D20">
-        <v>0.4706719267718587</v>
+        <v>0.6307944616833936</v>
       </c>
       <c r="E20">
-        <v>1.399612252882264</v>
+        <v>0.01489729679411589</v>
       </c>
       <c r="F20">
-        <v>14.34222062833717</v>
+        <v>12.47021577891741</v>
       </c>
       <c r="G20">
-        <v>0.0004142806215341558</v>
+        <v>0.0006084695565008567</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>52.24669147681499</v>
+        <v>13.06630787127733</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09892298073660299</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>8.563256024128492</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2216686947848636</v>
+        <v>0.1615291459126951</v>
       </c>
       <c r="D21">
-        <v>0.4706719267718587</v>
+        <v>0.850104948891186</v>
       </c>
       <c r="E21">
-        <v>1.399612252882264</v>
+        <v>0.01351087200660661</v>
       </c>
       <c r="F21">
-        <v>14.34222062833717</v>
+        <v>16.26168015778973</v>
       </c>
       <c r="G21">
-        <v>0.0004142806215341558</v>
+        <v>0.0005449529992581449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>52.24669147681499</v>
+        <v>16.1766733640533</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1166830860781971</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>10.60988020213912</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2216686947848636</v>
+        <v>0.1945670270206534</v>
       </c>
       <c r="D22">
-        <v>0.4706719267718587</v>
+        <v>1.136519120852455</v>
       </c>
       <c r="E22">
-        <v>1.399612252882264</v>
+        <v>0.01243048512941769</v>
       </c>
       <c r="F22">
-        <v>14.34222062833717</v>
+        <v>20.82910675375234</v>
       </c>
       <c r="G22">
-        <v>0.0004142806215341558</v>
+        <v>0.000479758988071319</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>52.24669147681499</v>
+        <v>19.47762528402563</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1347555967842382</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>12.79447349126926</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2216686947848636</v>
+        <v>0.1737561202652529</v>
       </c>
       <c r="D23">
-        <v>0.4706719267718587</v>
+        <v>0.9543269195623338</v>
       </c>
       <c r="E23">
-        <v>1.399612252882264</v>
+        <v>0.01303696870336779</v>
       </c>
       <c r="F23">
-        <v>14.34222062833717</v>
+        <v>17.96617237141828</v>
       </c>
       <c r="G23">
-        <v>0.0004142806215341558</v>
+        <v>0.000519410213958795</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>52.24669147681499</v>
+        <v>17.45922373665962</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1237824015391169</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>11.45719641530781</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2216686947848636</v>
+        <v>0.1347236537023093</v>
       </c>
       <c r="D24">
-        <v>0.4706719267718587</v>
+        <v>0.6280805976887223</v>
       </c>
       <c r="E24">
-        <v>1.399612252882264</v>
+        <v>0.01491860332919392</v>
       </c>
       <c r="F24">
-        <v>14.34222062833717</v>
+        <v>12.42115644386121</v>
       </c>
       <c r="G24">
-        <v>0.0004142806215341558</v>
+        <v>0.00060936513621131</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>52.24669147681499</v>
+        <v>13.02339721569905</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09867191982886681</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8.535104765484107</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2216686947848636</v>
+        <v>0.1121813351706464</v>
       </c>
       <c r="D25">
-        <v>0.4706719267718587</v>
+        <v>0.4469916665256903</v>
       </c>
       <c r="E25">
-        <v>1.399612252882264</v>
+        <v>0.01668855035180794</v>
       </c>
       <c r="F25">
-        <v>14.34222062833717</v>
+        <v>8.97736010390031</v>
       </c>
       <c r="G25">
-        <v>0.0004142806215341558</v>
+        <v>0.0006787647028824531</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.5571601942097</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.257909915428165</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>52.24669147681499</v>
+        <v>9.797649140444264</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07926680767698713</v>
       </c>
       <c r="M25">
+        <v>6.425779010778143</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1011392331074674</v>
+        <v>0.003518115759170826</v>
       </c>
       <c r="D2">
-        <v>0.3591062653964912</v>
+        <v>0.006642437854612382</v>
       </c>
       <c r="E2">
-        <v>0.01793411233627085</v>
+        <v>1.555664848783138</v>
       </c>
       <c r="F2">
-        <v>7.128934658702946</v>
+        <v>1.875886600853121</v>
       </c>
       <c r="G2">
-        <v>0.0007233973091258431</v>
+        <v>0.0007204789689423458</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.421898502779925</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.847345980975689</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06697332094402242</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.157563690351083</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>6.307730098780894</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0954835333816817</v>
+        <v>0.003043403720988991</v>
       </c>
       <c r="D3">
-        <v>0.3136103233864276</v>
+        <v>0.005565408747770562</v>
       </c>
       <c r="E3">
-        <v>0.01877423193866923</v>
+        <v>1.326205296570137</v>
       </c>
       <c r="F3">
-        <v>6.089908919548861</v>
+        <v>1.618701688777321</v>
       </c>
       <c r="G3">
-        <v>0.0007521236869677802</v>
+        <v>0.0007282076964785818</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.226591802238616</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.65603072015827</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.05922486915506298</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.385882733806454</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>5.440399268552881</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09263547938252259</v>
+        <v>0.002755456163047398</v>
       </c>
       <c r="D4">
-        <v>0.2902464021259874</v>
+        <v>0.004941238200924403</v>
       </c>
       <c r="E4">
-        <v>0.01929422219872379</v>
+        <v>1.189466614278686</v>
       </c>
       <c r="F4">
-        <v>5.521192465213772</v>
+        <v>1.464263074801536</v>
       </c>
       <c r="G4">
-        <v>0.0007694369992198868</v>
+        <v>0.000733063603460038</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.10933058183717</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5.965940038784822</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0546433267944515</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.940043472787437</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.919871494112556</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09160327641473742</v>
+        <v>0.002638839087383715</v>
       </c>
       <c r="D5">
-        <v>0.2816326566580187</v>
+        <v>0.004694650207628825</v>
       </c>
       <c r="E5">
-        <v>0.01950784035472397</v>
+        <v>1.134615199638134</v>
       </c>
       <c r="F5">
-        <v>5.303120860736271</v>
+        <v>1.40207934259054</v>
       </c>
       <c r="G5">
-        <v>0.0007764547629307263</v>
+        <v>0.0007350722318445601</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.062120111888476</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.692743938793654</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05280906419788067</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.763802296563611</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>4.710348188083685</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09143894298686916</v>
+        <v>0.002619514296863912</v>
       </c>
       <c r="D6">
-        <v>0.2802513330232443</v>
+        <v>0.004654131597854771</v>
       </c>
       <c r="E6">
-        <v>0.01954343202738684</v>
+        <v>1.125555087158759</v>
       </c>
       <c r="F6">
-        <v>5.26764684054865</v>
+        <v>1.391795807124026</v>
       </c>
       <c r="G6">
-        <v>0.0007776188567061304</v>
+        <v>0.0007354076190726515</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.054312973018099</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.647806680334867</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05250618661094109</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.734827697026702</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>4.675702148011737</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09262107099261385</v>
+        <v>0.002753880692273114</v>
       </c>
       <c r="D7">
-        <v>0.2901268310736214</v>
+        <v>0.004937883104734198</v>
       </c>
       <c r="E7">
-        <v>0.01929709539556068</v>
+        <v>1.188723556964064</v>
       </c>
       <c r="F7">
-        <v>5.518200244912322</v>
+        <v>1.46342155432194</v>
       </c>
       <c r="G7">
-        <v>0.0007695317456651697</v>
+        <v>0.0007330905692772372</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.108691676466606</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.962225823724566</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.054618469586174</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.937646379890779</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.917035810342952</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09903940781841669</v>
+        <v>0.003353596907015088</v>
       </c>
       <c r="D8">
-        <v>0.342299864272249</v>
+        <v>0.006262356905248012</v>
       </c>
       <c r="E8">
-        <v>0.01822338498812437</v>
+        <v>1.475574751987523</v>
       </c>
       <c r="F8">
-        <v>6.753685799971493</v>
+        <v>1.786410600747104</v>
       </c>
       <c r="G8">
-        <v>0.0007334005146912556</v>
+        <v>0.0007231222053219384</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.353945487933942</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.426321124749308</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06425703200864064</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>4.884565639611708</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>6.005909939732646</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1185784331024138</v>
+        <v>0.004566520247738737</v>
       </c>
       <c r="D9">
-        <v>0.4979957725371946</v>
+        <v>0.009238535903854483</v>
       </c>
       <c r="E9">
-        <v>0.01610734564071281</v>
+        <v>2.080150551991039</v>
       </c>
       <c r="F9">
-        <v>9.986771944467705</v>
+        <v>2.453626078189487</v>
       </c>
       <c r="G9">
-        <v>0.0006569025468146084</v>
+        <v>0.0007043461188189507</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.860794532613482</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.79099089522859</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08535885765746087</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>7.073839280372852</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>8.258400942964329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1426178419745696</v>
+        <v>0.005495583858195374</v>
       </c>
       <c r="D10">
-        <v>0.6926097208365718</v>
+        <v>0.01180023278516273</v>
       </c>
       <c r="E10">
-        <v>0.0144431146023134</v>
+        <v>2.56530347427551</v>
       </c>
       <c r="F10">
-        <v>13.57181530662189</v>
+        <v>2.974593910482696</v>
       </c>
       <c r="G10">
-        <v>0.0005889084307147026</v>
+        <v>0.0006908526893857774</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.256764885090959</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.01060642143872</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1044042934870362</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>9.183344364132921</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10.0201815509991</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1593021487663577</v>
+        <v>0.005931073796244135</v>
       </c>
       <c r="D11">
-        <v>0.8313316670343909</v>
+        <v>0.01308930171089528</v>
       </c>
       <c r="E11">
-        <v>0.01360737020603198</v>
+        <v>2.799302802325798</v>
       </c>
       <c r="F11">
-        <v>15.9487513483927</v>
+        <v>3.22102699475974</v>
       </c>
       <c r="G11">
-        <v>0.0005498222119872942</v>
+        <v>0.0006847334768711181</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.44414140663666</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.93401799958048</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1153265196222648</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>10.44978893103163</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10.85450883921902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1675230583623915</v>
+        <v>0.006098334650168624</v>
       </c>
       <c r="D12">
-        <v>0.9009495533606469</v>
+        <v>0.01359980660339843</v>
       </c>
       <c r="E12">
-        <v>0.01326703661900597</v>
+        <v>2.890292991878383</v>
       </c>
       <c r="F12">
-        <v>17.09991587986957</v>
+        <v>3.315981211504607</v>
       </c>
       <c r="G12">
-        <v>0.0005321918655373253</v>
+        <v>0.0006824143232714602</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.516352879844362</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.81548425311445</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1202334437557937</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.03166864581289</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>11.17615482988481</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.165624493650995</v>
+        <v>0.006062198139165531</v>
       </c>
       <c r="D13">
-        <v>0.8847939725618232</v>
+        <v>0.01348878120581887</v>
       </c>
       <c r="E13">
-        <v>0.01334181687390412</v>
+        <v>2.870582210304534</v>
       </c>
       <c r="F13">
-        <v>16.83500151281373</v>
+        <v>3.295453424476449</v>
       </c>
       <c r="G13">
-        <v>0.0005361816922682943</v>
+        <v>0.0006829139648392309</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.500741157207912</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.61532384177121</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1191241769617193</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>10.89945657014988</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>11.1066114340764</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1599264345272644</v>
+        <v>0.005944784017504645</v>
       </c>
       <c r="D14">
-        <v>0.8365879771589277</v>
+        <v>0.01313082304936586</v>
       </c>
       <c r="E14">
-        <v>0.01357998795360871</v>
+        <v>2.806737875639428</v>
       </c>
       <c r="F14">
-        <v>16.03656064240175</v>
+        <v>3.228804390552853</v>
       </c>
       <c r="G14">
-        <v>0.0005484499191821257</v>
+        <v>0.0006845427475160551</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.450055750782766</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.00234256292157</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1157089443712067</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>10.49485877488874</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>10.88085029621419</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1567487238665706</v>
+        <v>0.005873187587216222</v>
       </c>
       <c r="D15">
-        <v>0.8098834096471421</v>
+        <v>0.01291462946970157</v>
       </c>
       <c r="E15">
-        <v>0.01372210426210385</v>
+        <v>2.767956929079887</v>
       </c>
       <c r="F15">
-        <v>15.58885925900734</v>
+        <v>3.188201995857071</v>
       </c>
       <c r="G15">
-        <v>0.0005554963576755939</v>
+        <v>0.0006855400176033945</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.419180057765146</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.65204702699936</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1137444310034894</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.26384787077561</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>10.74333994796024</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1417013667389426</v>
+        <v>0.005467422382920972</v>
       </c>
       <c r="D16">
-        <v>0.6850835461947611</v>
+        <v>0.01171884615007102</v>
       </c>
       <c r="E16">
-        <v>0.01449539006915845</v>
+        <v>2.550316357013543</v>
       </c>
       <c r="F16">
-        <v>13.43924206790325</v>
+        <v>2.958701557036193</v>
       </c>
       <c r="G16">
-        <v>0.0005912092661211221</v>
+        <v>0.0006912525966090203</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.244682658061336</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.89885639472598</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1037599000124914</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>9.109903724596904</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.966397498292338</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1343223327706511</v>
+        <v>0.005222111143563524</v>
       </c>
       <c r="D17">
-        <v>0.6248176690918399</v>
+        <v>0.01101990009769338</v>
       </c>
       <c r="E17">
-        <v>0.01494438305646906</v>
+        <v>2.420509215818811</v>
       </c>
       <c r="F17">
-        <v>12.36208942680821</v>
+        <v>2.820511488454201</v>
       </c>
       <c r="G17">
-        <v>0.000610446317228198</v>
+        <v>0.0006947588831382916</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.139631109142385</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.97163268966045</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09836882326444396</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>8.501148094700227</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9.498832259316544</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1305324090947835</v>
+        <v>0.005082188283356714</v>
       </c>
       <c r="D18">
-        <v>0.5940834515574522</v>
+        <v>0.01062920481185969</v>
       </c>
       <c r="E18">
-        <v>0.01519625976873717</v>
+        <v>2.347066349565637</v>
       </c>
       <c r="F18">
-        <v>11.80117587626091</v>
+        <v>2.741897773018479</v>
       </c>
       <c r="G18">
-        <v>0.0006208768367592773</v>
+        <v>0.00069677772087063</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.079875626933784</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.47447799331636</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.09544468819263585</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>8.175197013776938</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.232928798362366</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1293137530088586</v>
+        <v>0.005035001012583251</v>
       </c>
       <c r="D19">
-        <v>0.5842305819389537</v>
+        <v>0.01049874354102442</v>
       </c>
       <c r="E19">
-        <v>0.01528064204302515</v>
+        <v>2.322396548995059</v>
       </c>
       <c r="F19">
-        <v>11.61954162398354</v>
+        <v>2.715422182796289</v>
       </c>
       <c r="G19">
-        <v>0.0006243201999458273</v>
+        <v>0.0006974617567992987</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.059752154711958</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.31126627065268</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09447945998964258</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>8.06825920495757</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>9.143391491210707</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1350572884798993</v>
+        <v>0.005248100221209029</v>
       </c>
       <c r="D20">
-        <v>0.6307944616833936</v>
+        <v>0.01109310271282027</v>
       </c>
       <c r="E20">
-        <v>0.01489729679411589</v>
+        <v>2.434198206272853</v>
       </c>
       <c r="F20">
-        <v>12.47021577891741</v>
+        <v>2.835130204803079</v>
       </c>
       <c r="G20">
-        <v>0.0006084695565008567</v>
+        <v>0.0006943854453146835</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.150743523713686</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.06630787127733</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09892298073660299</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>8.563256024128492</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>9.548285503668353</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1615291459126951</v>
+        <v>0.005979202974852882</v>
       </c>
       <c r="D21">
-        <v>0.850104948891186</v>
+        <v>0.01323531533252265</v>
       </c>
       <c r="E21">
-        <v>0.01351087200660661</v>
+        <v>2.825421672944387</v>
       </c>
       <c r="F21">
-        <v>16.26168015778973</v>
+        <v>3.248333981345695</v>
       </c>
       <c r="G21">
-        <v>0.0005449529992581449</v>
+        <v>0.0006840644289611258</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.464907296063402</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.1766733640533</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1166830860781971</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>10.60988020213912</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>10.94699833237507</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1945670270206534</v>
+        <v>0.006471052459950499</v>
       </c>
       <c r="D22">
-        <v>1.136519120852455</v>
+        <v>0.01476868495247174</v>
       </c>
       <c r="E22">
-        <v>0.01243048512941769</v>
+        <v>3.09527861499069</v>
       </c>
       <c r="F22">
-        <v>20.82910675375234</v>
+        <v>3.52808630835716</v>
       </c>
       <c r="G22">
-        <v>0.000479758988071319</v>
+        <v>0.0006773048810588822</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.67768201740968</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.47762528402563</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1347555967842382</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.79447349126926</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.89497851262723</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1737561202652529</v>
+        <v>0.006207058287074574</v>
       </c>
       <c r="D23">
-        <v>0.9543269195623338</v>
+        <v>0.01393629075597502</v>
       </c>
       <c r="E23">
-        <v>0.01303696870336779</v>
+        <v>2.949770951391073</v>
       </c>
       <c r="F23">
-        <v>17.96617237141828</v>
+        <v>3.377784185034244</v>
       </c>
       <c r="G23">
-        <v>0.000519410213958795</v>
+        <v>0.0006809156632118404</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.56335708446214</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.45922373665962</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1237824015391169</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.45719641530781</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.38555575188775</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1347236537023093</v>
+        <v>0.00523634713850285</v>
       </c>
       <c r="D24">
-        <v>0.6280805976887223</v>
+        <v>0.01105997344792797</v>
       </c>
       <c r="E24">
-        <v>0.01491860332919392</v>
+        <v>2.428005756549013</v>
       </c>
       <c r="F24">
-        <v>12.42115644386121</v>
+        <v>2.82851850697395</v>
       </c>
       <c r="G24">
-        <v>0.00060936513621131</v>
+        <v>0.0006945542667436053</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.145717623099586</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.02339721569905</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.09867191982886681</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>8.535104765484107</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>9.525918711586314</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1121813351706464</v>
+        <v>0.004233038155801339</v>
       </c>
       <c r="D25">
-        <v>0.4469916665256903</v>
+        <v>0.008379643469272224</v>
       </c>
       <c r="E25">
-        <v>0.01668855035180794</v>
+        <v>1.910675845220169</v>
       </c>
       <c r="F25">
-        <v>8.97736010390031</v>
+        <v>2.268545611566722</v>
       </c>
       <c r="G25">
-        <v>0.0006787647028824531</v>
+        <v>0.0007093588917436099</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.720168068184208</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.797649140444264</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07926680767698713</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>6.425779010778143</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>7.63314850386422</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003518115759170826</v>
+        <v>0.001214305068890198</v>
       </c>
       <c r="D2">
-        <v>0.006642437854612382</v>
+        <v>0.002046462813289907</v>
       </c>
       <c r="E2">
-        <v>1.555664848783138</v>
+        <v>0.4304973541418349</v>
       </c>
       <c r="F2">
-        <v>1.875886600853121</v>
+        <v>0.8133486523056774</v>
       </c>
       <c r="G2">
-        <v>0.0007204789689423458</v>
+        <v>0.002341840673284616</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.421898502779925</v>
+        <v>0.6112125958755144</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.307730098780894</v>
+        <v>2.719297177951887</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.003043403720988991</v>
+        <v>0.001082874213185647</v>
       </c>
       <c r="D3">
-        <v>0.005565408747770562</v>
+        <v>0.001855303547699805</v>
       </c>
       <c r="E3">
-        <v>1.326205296570137</v>
+        <v>0.3750918814099862</v>
       </c>
       <c r="F3">
-        <v>1.618701688777321</v>
+        <v>0.7525647962886808</v>
       </c>
       <c r="G3">
-        <v>0.0007282076964785818</v>
+        <v>0.002346712352702368</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.226591802238616</v>
+        <v>0.5650593356818092</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.440399268552881</v>
+        <v>2.515198469554377</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002755456163047398</v>
+        <v>0.001002524826958506</v>
       </c>
       <c r="D4">
-        <v>0.004941238200924403</v>
+        <v>0.001739784821380042</v>
       </c>
       <c r="E4">
-        <v>1.189466614278686</v>
+        <v>0.3412096363495891</v>
       </c>
       <c r="F4">
-        <v>1.464263074801536</v>
+        <v>0.7157517958632837</v>
       </c>
       <c r="G4">
-        <v>0.000733063603460038</v>
+        <v>0.002349859887774913</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.10933058183717</v>
+        <v>0.5371031260879846</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.919871494112556</v>
+        <v>2.391593294181177</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002638839087383715</v>
+        <v>0.0009698708151830715</v>
       </c>
       <c r="D5">
-        <v>0.004694650207628825</v>
+        <v>0.001693152239104379</v>
       </c>
       <c r="E5">
-        <v>1.134615199638134</v>
+        <v>0.3274337357479027</v>
       </c>
       <c r="F5">
-        <v>1.40207934259054</v>
+        <v>0.7008764035240773</v>
       </c>
       <c r="G5">
-        <v>0.0007350722318445601</v>
+        <v>0.002351181983142574</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.062120111888476</v>
+        <v>0.5258055262832073</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.710348188083685</v>
+        <v>2.341647831043076</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002619514296863912</v>
+        <v>0.0009644540515694189</v>
       </c>
       <c r="D6">
-        <v>0.004654131597854771</v>
+        <v>0.001685434953671461</v>
       </c>
       <c r="E6">
-        <v>1.125555087158759</v>
+        <v>0.3251480654235195</v>
       </c>
       <c r="F6">
-        <v>1.391795807124026</v>
+        <v>0.6984139299659091</v>
       </c>
       <c r="G6">
-        <v>0.0007354076190726515</v>
+        <v>0.00235140390308072</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.054312973018099</v>
+        <v>0.5239352555636003</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.675702148011737</v>
+        <v>2.333379901361866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002753880692273114</v>
+        <v>0.001002084080935717</v>
       </c>
       <c r="D7">
-        <v>0.004937883104734198</v>
+        <v>0.001739154157165856</v>
       </c>
       <c r="E7">
-        <v>1.188723556964064</v>
+        <v>0.3410237266118372</v>
       </c>
       <c r="F7">
-        <v>1.46342155432194</v>
+        <v>0.7155506723287175</v>
       </c>
       <c r="G7">
-        <v>0.0007330905692772372</v>
+        <v>0.002349877558024579</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.108691676466606</v>
+        <v>0.5369503806425797</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.917035810342952</v>
+        <v>2.390918000611464</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.003353596907015088</v>
+        <v>0.001168915712549179</v>
       </c>
       <c r="D8">
-        <v>0.006262356905248012</v>
+        <v>0.001980151755946125</v>
       </c>
       <c r="E8">
-        <v>1.475574751987523</v>
+        <v>0.4113632681818444</v>
       </c>
       <c r="F8">
-        <v>1.786410600747104</v>
+        <v>0.7922838023181242</v>
       </c>
       <c r="G8">
-        <v>0.0007231222053219384</v>
+        <v>0.002343488075062572</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.353945487933942</v>
+        <v>0.5952188533536571</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.005909939732646</v>
+        <v>2.64856492175636</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.004566520247738737</v>
+        <v>0.001498820731356432</v>
       </c>
       <c r="D9">
-        <v>0.009238535903854483</v>
+        <v>0.002468573376770422</v>
       </c>
       <c r="E9">
-        <v>2.080150551991039</v>
+        <v>0.5505299427433954</v>
       </c>
       <c r="F9">
-        <v>2.453626078189487</v>
+        <v>0.9468763800419566</v>
       </c>
       <c r="G9">
-        <v>0.0007043461188189507</v>
+        <v>0.002332191884465699</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.860794532613482</v>
+        <v>0.7125798299845343</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.258400942964329</v>
+        <v>3.167691982119493</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.005495583858195374</v>
+        <v>0.001742874980003251</v>
       </c>
       <c r="D10">
-        <v>0.01180023278516273</v>
+        <v>0.00283866659964005</v>
       </c>
       <c r="E10">
-        <v>2.56530347427551</v>
+        <v>0.6537366696595797</v>
       </c>
       <c r="F10">
-        <v>2.974593910482696</v>
+        <v>1.063095971564564</v>
       </c>
       <c r="G10">
-        <v>0.0006908526893857774</v>
+        <v>0.002324635282982213</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.256764885090959</v>
+        <v>0.800792498283954</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.0201815509991</v>
+        <v>3.558010637400059</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.005931073796244135</v>
+        <v>0.001854267907294371</v>
       </c>
       <c r="D11">
-        <v>0.01308930171089528</v>
+        <v>0.003009832214587504</v>
       </c>
       <c r="E11">
-        <v>2.799302802325798</v>
+        <v>0.7009434488239776</v>
       </c>
       <c r="F11">
-        <v>3.22102699475974</v>
+        <v>1.116569624944702</v>
       </c>
       <c r="G11">
-        <v>0.0006847334768711181</v>
+        <v>0.002321356869915748</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.44414140663666</v>
+        <v>0.8413766745340467</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.85450883921902</v>
+        <v>3.737614285049972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.006098334650168624</v>
+        <v>0.00189650272443842</v>
       </c>
       <c r="D12">
-        <v>0.01359980660339843</v>
+        <v>0.003075081494696263</v>
       </c>
       <c r="E12">
-        <v>2.890292991878383</v>
+        <v>0.7188601408738862</v>
       </c>
       <c r="F12">
-        <v>3.315981211504607</v>
+        <v>1.136907811103981</v>
       </c>
       <c r="G12">
-        <v>0.0006824143232714602</v>
+        <v>0.002320138148464447</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.516352879844362</v>
+        <v>0.856812041308217</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.17615482988481</v>
+        <v>3.805927218431918</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.006062198139165531</v>
+        <v>0.001887404365920275</v>
       </c>
       <c r="D13">
-        <v>0.01348878120581887</v>
+        <v>0.003061009190890474</v>
       </c>
       <c r="E13">
-        <v>2.870582210304534</v>
+        <v>0.7149996029872199</v>
       </c>
       <c r="F13">
-        <v>3.295453424476449</v>
+        <v>1.132523635391351</v>
       </c>
       <c r="G13">
-        <v>0.0006829139648392309</v>
+        <v>0.002320399612671794</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.500741157207912</v>
+        <v>0.8534847543661783</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.1066114340764</v>
+        <v>3.791201313206784</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.005944784017504645</v>
+        <v>0.001857741538231039</v>
       </c>
       <c r="D14">
-        <v>0.01313082304936586</v>
+        <v>0.003015191475782331</v>
       </c>
       <c r="E14">
-        <v>2.806737875639428</v>
+        <v>0.7024166338524509</v>
       </c>
       <c r="F14">
-        <v>3.228804390552853</v>
+        <v>1.118241067548098</v>
       </c>
       <c r="G14">
-        <v>0.0006845427475160551</v>
+        <v>0.002321256149805728</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.450055750782766</v>
+        <v>0.8426451997138287</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.88085029621419</v>
+        <v>3.743228361005492</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.005873187587216222</v>
+        <v>0.001839579048375839</v>
       </c>
       <c r="D15">
-        <v>0.01291462946970157</v>
+        <v>0.002987184000993182</v>
       </c>
       <c r="E15">
-        <v>2.767956929079887</v>
+        <v>0.6947145817116791</v>
       </c>
       <c r="F15">
-        <v>3.188201995857071</v>
+        <v>1.109504213549883</v>
       </c>
       <c r="G15">
-        <v>0.0006855400176033945</v>
+        <v>0.002321783761155086</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.419180057765146</v>
+        <v>0.8360144317726252</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.74333994796024</v>
+        <v>3.71388293500479</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.005467422382920972</v>
+        <v>0.001735602603186948</v>
       </c>
       <c r="D16">
-        <v>0.01171884615007102</v>
+        <v>0.002827539475511287</v>
       </c>
       <c r="E16">
-        <v>2.550316357013543</v>
+        <v>0.6506570735473076</v>
       </c>
       <c r="F16">
-        <v>2.958701557036193</v>
+        <v>1.059613674597358</v>
       </c>
       <c r="G16">
-        <v>0.0006912525966090203</v>
+        <v>0.002324852725136913</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.244682658061336</v>
+        <v>0.7981495243672896</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.966397498292338</v>
+        <v>3.546314856958588</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.005222111143563524</v>
+        <v>0.001671911038179985</v>
       </c>
       <c r="D17">
-        <v>0.01101990009769338</v>
+        <v>0.002730342243278727</v>
       </c>
       <c r="E17">
-        <v>2.420509215818811</v>
+        <v>0.6236976324255892</v>
       </c>
       <c r="F17">
-        <v>2.820511488454201</v>
+        <v>1.029163690499303</v>
       </c>
       <c r="G17">
-        <v>0.0006947588831382916</v>
+        <v>0.002326776090929563</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.139631109142385</v>
+        <v>0.7750384128583931</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.498832259316544</v>
+        <v>3.444046001339359</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.005082188283356714</v>
+        <v>0.001635312328890137</v>
       </c>
       <c r="D18">
-        <v>0.01062920481185969</v>
+        <v>0.002674699540115455</v>
       </c>
       <c r="E18">
-        <v>2.347066349565637</v>
+        <v>0.6082153024573813</v>
       </c>
       <c r="F18">
-        <v>2.741897773018479</v>
+        <v>1.011706473618602</v>
       </c>
       <c r="G18">
-        <v>0.00069677772087063</v>
+        <v>0.002327897345802834</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.079875626933784</v>
+        <v>0.7617883241393031</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.232928798362366</v>
+        <v>3.385415803844865</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.005035001012583251</v>
+        <v>0.001622926667334212</v>
       </c>
       <c r="D19">
-        <v>0.01049874354102442</v>
+        <v>0.002655904110092422</v>
       </c>
       <c r="E19">
-        <v>2.322396548995059</v>
+        <v>0.602977273329472</v>
       </c>
       <c r="F19">
-        <v>2.715422182796289</v>
+        <v>1.005805459256607</v>
       </c>
       <c r="G19">
-        <v>0.0006974617567992987</v>
+        <v>0.002328279561562133</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.059752154711958</v>
+        <v>0.7573093800281043</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.143391491210707</v>
+        <v>3.365597423164161</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.005248100221209029</v>
+        <v>0.001678687496838194</v>
       </c>
       <c r="D20">
-        <v>0.01109310271282027</v>
+        <v>0.002740661672977041</v>
       </c>
       <c r="E20">
-        <v>2.434198206272853</v>
+        <v>0.6265649991966171</v>
       </c>
       <c r="F20">
-        <v>2.835130204803079</v>
+        <v>1.032399250097285</v>
       </c>
       <c r="G20">
-        <v>0.0006943854453146835</v>
+        <v>0.002326569795314328</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.150743523713686</v>
+        <v>0.7774941886937228</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.548285503668353</v>
+        <v>3.454912760925026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.005979202974852882</v>
+        <v>0.001866452803508167</v>
       </c>
       <c r="D21">
-        <v>0.01323531533252265</v>
+        <v>0.003028637276567991</v>
       </c>
       <c r="E21">
-        <v>2.825421672944387</v>
+        <v>0.7061114294735376</v>
       </c>
       <c r="F21">
-        <v>3.248333981345695</v>
+        <v>1.122433776554914</v>
       </c>
       <c r="G21">
-        <v>0.0006840644289611258</v>
+        <v>0.00232100394812837</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.464907296063402</v>
+        <v>0.8458272088643071</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.94699833237507</v>
+        <v>3.757310958386086</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.006471052459950499</v>
+        <v>0.001989475412958797</v>
       </c>
       <c r="D22">
-        <v>0.01476868495247174</v>
+        <v>0.003219381215675554</v>
       </c>
       <c r="E22">
-        <v>3.09527861499069</v>
+        <v>0.758337397378142</v>
       </c>
       <c r="F22">
-        <v>3.52808630835716</v>
+        <v>1.181795479378252</v>
       </c>
       <c r="G22">
-        <v>0.0006773048810588822</v>
+        <v>0.00231749884163381</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.67768201740968</v>
+        <v>0.8908781354258366</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.89497851262723</v>
+        <v>3.956702928797938</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.006207058287074574</v>
+        <v>0.001923788025923301</v>
       </c>
       <c r="D23">
-        <v>0.01393629075597502</v>
+        <v>0.003117335930284071</v>
       </c>
       <c r="E23">
-        <v>2.949770951391073</v>
+        <v>0.7304404936381701</v>
       </c>
       <c r="F23">
-        <v>3.377784185034244</v>
+        <v>1.150064900034494</v>
       </c>
       <c r="G23">
-        <v>0.0006809156632118404</v>
+        <v>0.002319357505463993</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.56335708446214</v>
+        <v>0.8667973049203681</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.38555575188775</v>
+        <v>3.850120629423088</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.00523634713850285</v>
+        <v>0.001675623802700699</v>
       </c>
       <c r="D24">
-        <v>0.01105997344792797</v>
+        <v>0.002735995522193946</v>
       </c>
       <c r="E24">
-        <v>2.428005756549013</v>
+        <v>0.6252686099535794</v>
       </c>
       <c r="F24">
-        <v>2.82851850697395</v>
+        <v>1.030936301482171</v>
       </c>
       <c r="G24">
-        <v>0.0006945542667436053</v>
+        <v>0.002326663013292429</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.145717623099586</v>
+        <v>0.7763838179350273</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.525918711586314</v>
+        <v>3.449999383836428</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.004233038155801339</v>
+        <v>0.001409279053683932</v>
       </c>
       <c r="D25">
-        <v>0.008379643469272224</v>
+        <v>0.002334584835189446</v>
       </c>
       <c r="E25">
-        <v>1.910675845220169</v>
+        <v>0.5127283134970355</v>
       </c>
       <c r="F25">
-        <v>2.268545611566722</v>
+        <v>0.9046007503700224</v>
       </c>
       <c r="G25">
-        <v>0.0007093588917436099</v>
+        <v>0.002335116705033783</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.720168068184208</v>
+        <v>0.6804888268094231</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.63314850386422</v>
+        <v>3.025721714252654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001214305068890198</v>
+        <v>0.003518115759172602</v>
       </c>
       <c r="D2">
-        <v>0.002046462813289907</v>
+        <v>0.006642437854520011</v>
       </c>
       <c r="E2">
-        <v>0.4304973541418349</v>
+        <v>1.55566484878311</v>
       </c>
       <c r="F2">
-        <v>0.8133486523056774</v>
+        <v>1.875886600853093</v>
       </c>
       <c r="G2">
-        <v>0.002341840673284616</v>
+        <v>0.0007204789689702517</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6112125958755144</v>
+        <v>1.421898502779925</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.719297177951887</v>
+        <v>6.307730098780837</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001082874213185647</v>
+        <v>0.003043403720985438</v>
       </c>
       <c r="D3">
-        <v>0.001855303547699805</v>
+        <v>0.005565408747743916</v>
       </c>
       <c r="E3">
-        <v>0.3750918814099862</v>
+        <v>1.326205296570151</v>
       </c>
       <c r="F3">
-        <v>0.7525647962886808</v>
+        <v>1.618701688777321</v>
       </c>
       <c r="G3">
-        <v>0.002346712352702368</v>
+        <v>0.0007282076964610073</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5650593356818092</v>
+        <v>1.226591802238644</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.515198469554377</v>
+        <v>5.440399268552994</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001002524826958506</v>
+        <v>0.002755456162876868</v>
       </c>
       <c r="D4">
-        <v>0.001739784821380042</v>
+        <v>0.004941238201007891</v>
       </c>
       <c r="E4">
-        <v>0.3412096363495891</v>
+        <v>1.1894666142787</v>
       </c>
       <c r="F4">
-        <v>0.7157517958632837</v>
+        <v>1.464263074801508</v>
       </c>
       <c r="G4">
-        <v>0.002349859887774913</v>
+        <v>0.0007330636034594828</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5371031260879846</v>
+        <v>1.10933058183717</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.391593294181177</v>
+        <v>4.919871494112499</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0009698708151830715</v>
+        <v>0.002638839087271805</v>
       </c>
       <c r="D5">
-        <v>0.001693152239104379</v>
+        <v>0.004694650207714091</v>
       </c>
       <c r="E5">
-        <v>0.3274337357479027</v>
+        <v>1.134615199638148</v>
       </c>
       <c r="F5">
-        <v>0.7008764035240773</v>
+        <v>1.40207934259054</v>
       </c>
       <c r="G5">
-        <v>0.002351181983142574</v>
+        <v>0.0007350722318449932</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5258055262832073</v>
+        <v>1.062120111888476</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.341647831043076</v>
+        <v>4.710348188083628</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0009644540515694189</v>
+        <v>0.002619514296805292</v>
       </c>
       <c r="D6">
-        <v>0.001685434953671461</v>
+        <v>0.004654131597934708</v>
       </c>
       <c r="E6">
-        <v>0.3251480654235195</v>
+        <v>1.125555087158759</v>
       </c>
       <c r="F6">
-        <v>0.6984139299659091</v>
+        <v>1.391795807124041</v>
       </c>
       <c r="G6">
-        <v>0.00235140390308072</v>
+        <v>0.0007354076190723223</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5239352555636003</v>
+        <v>1.054312973018085</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.333379901361866</v>
+        <v>4.675702148011794</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001002084080935717</v>
+        <v>0.002753880691987121</v>
       </c>
       <c r="D7">
-        <v>0.001739154157165856</v>
+        <v>0.004937883104730645</v>
       </c>
       <c r="E7">
-        <v>0.3410237266118372</v>
+        <v>1.18872355696405</v>
       </c>
       <c r="F7">
-        <v>0.7155506723287175</v>
+        <v>1.463421554321926</v>
       </c>
       <c r="G7">
-        <v>0.002349877558024579</v>
+        <v>0.0007330905692341605</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5369503806425797</v>
+        <v>1.108691676466606</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.390918000611464</v>
+        <v>4.917035810343009</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001168915712549179</v>
+        <v>0.00335359690719983</v>
       </c>
       <c r="D8">
-        <v>0.001980151755946125</v>
+        <v>0.006262356905359923</v>
       </c>
       <c r="E8">
-        <v>0.4113632681818444</v>
+        <v>1.475574751987509</v>
       </c>
       <c r="F8">
-        <v>0.7922838023181242</v>
+        <v>1.786410600747118</v>
       </c>
       <c r="G8">
-        <v>0.002343488075062572</v>
+        <v>0.0007231222053220823</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5952188533536571</v>
+        <v>1.353945487933956</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.64856492175636</v>
+        <v>6.005909939732646</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.001498820731356432</v>
+        <v>0.004566520247948347</v>
       </c>
       <c r="D9">
-        <v>0.002468573376770422</v>
+        <v>0.009238535903847378</v>
       </c>
       <c r="E9">
-        <v>0.5505299427433954</v>
+        <v>2.080150551991068</v>
       </c>
       <c r="F9">
-        <v>0.9468763800419566</v>
+        <v>2.453626078189473</v>
       </c>
       <c r="G9">
-        <v>0.002332191884465699</v>
+        <v>0.000704346118818366</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7125798299845343</v>
+        <v>1.860794532613468</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.167691982119493</v>
+        <v>8.258400942964272</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.001742874980003251</v>
+        <v>0.005495583858650122</v>
       </c>
       <c r="D10">
-        <v>0.00283866659964005</v>
+        <v>0.01180023278515918</v>
       </c>
       <c r="E10">
-        <v>0.6537366696595797</v>
+        <v>2.565303474275481</v>
       </c>
       <c r="F10">
-        <v>1.063095971564564</v>
+        <v>2.974593910482696</v>
       </c>
       <c r="G10">
-        <v>0.002324635282982213</v>
+        <v>0.000690852689388775</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.800792498283954</v>
+        <v>2.256764885090945</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.558010637400059</v>
+        <v>10.02018155099915</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.001854267907294371</v>
+        <v>0.005931073796478614</v>
       </c>
       <c r="D11">
-        <v>0.003009832214587504</v>
+        <v>0.01308930171089173</v>
       </c>
       <c r="E11">
-        <v>0.7009434488239776</v>
+        <v>2.799302802325812</v>
       </c>
       <c r="F11">
-        <v>1.116569624944702</v>
+        <v>3.221026994759711</v>
       </c>
       <c r="G11">
-        <v>0.002321356869915748</v>
+        <v>0.0006847334768761197</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8413766745340467</v>
+        <v>2.444141406636646</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.737614285049972</v>
+        <v>10.85450883921902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.00189650272443842</v>
+        <v>0.006098334649959014</v>
       </c>
       <c r="D12">
-        <v>0.003075081494696263</v>
+        <v>0.01359980660341265</v>
       </c>
       <c r="E12">
-        <v>0.7188601408738862</v>
+        <v>2.890292991878368</v>
       </c>
       <c r="F12">
-        <v>1.136907811103981</v>
+        <v>3.315981211504635</v>
       </c>
       <c r="G12">
-        <v>0.002320138148464447</v>
+        <v>0.0006824143232656117</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.856812041308217</v>
+        <v>2.516352879844362</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.805927218431918</v>
+        <v>11.17615482988475</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.001887404365920275</v>
+        <v>0.006062198138717889</v>
       </c>
       <c r="D13">
-        <v>0.003061009190890474</v>
+        <v>0.01348878120571939</v>
       </c>
       <c r="E13">
-        <v>0.7149996029872199</v>
+        <v>2.870582210304534</v>
       </c>
       <c r="F13">
-        <v>1.132523635391351</v>
+        <v>3.29545342447642</v>
       </c>
       <c r="G13">
-        <v>0.002320399612671794</v>
+        <v>0.0006829139648933291</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8534847543661783</v>
+        <v>2.500741157207912</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.791201313206784</v>
+        <v>11.1066114340764</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.001857741538231039</v>
+        <v>0.005944784017266613</v>
       </c>
       <c r="D14">
-        <v>0.003015191475782331</v>
+        <v>0.01313082304936941</v>
       </c>
       <c r="E14">
-        <v>0.7024166338524509</v>
+        <v>2.806737875639428</v>
       </c>
       <c r="F14">
-        <v>1.118241067548098</v>
+        <v>3.228804390552853</v>
       </c>
       <c r="G14">
-        <v>0.002321256149805728</v>
+        <v>0.0006845427475697287</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8426451997138287</v>
+        <v>2.450055750782752</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.743228361005492</v>
+        <v>10.88085029621425</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.001839579048375839</v>
+        <v>0.005873187586971085</v>
       </c>
       <c r="D15">
-        <v>0.002987184000993182</v>
+        <v>0.01291462946959143</v>
       </c>
       <c r="E15">
-        <v>0.6947145817116791</v>
+        <v>2.767956929079872</v>
       </c>
       <c r="F15">
-        <v>1.109504213549883</v>
+        <v>3.188201995857099</v>
       </c>
       <c r="G15">
-        <v>0.002321783761155086</v>
+        <v>0.0006855400175432378</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8360144317726252</v>
+        <v>2.419180057765175</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.71388293500479</v>
+        <v>10.74333994796024</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.001735602603186948</v>
+        <v>0.005467422383134135</v>
       </c>
       <c r="D16">
-        <v>0.002827539475511287</v>
+        <v>0.01171884615006391</v>
       </c>
       <c r="E16">
-        <v>0.6506570735473076</v>
+        <v>2.550316357013557</v>
       </c>
       <c r="F16">
-        <v>1.059613674597358</v>
+        <v>2.958701557036193</v>
       </c>
       <c r="G16">
-        <v>0.002324852725136913</v>
+        <v>0.0006912525965545591</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7981495243672896</v>
+        <v>2.24468265806135</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.546314856958588</v>
+        <v>9.966397498292451</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.001671911038179985</v>
+        <v>0.005222111143563524</v>
       </c>
       <c r="D17">
-        <v>0.002730342243278727</v>
+        <v>0.01101990009746245</v>
       </c>
       <c r="E17">
-        <v>0.6236976324255892</v>
+        <v>2.420509215818782</v>
       </c>
       <c r="F17">
-        <v>1.029163690499303</v>
+        <v>2.820511488454173</v>
       </c>
       <c r="G17">
-        <v>0.002326776090929563</v>
+        <v>0.0006947588831374269</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7750384128583931</v>
+        <v>2.1396311091424</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.444046001339359</v>
+        <v>9.4988322593166</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.001635312328890137</v>
+        <v>0.005082188282919731</v>
       </c>
       <c r="D18">
-        <v>0.002674699540115455</v>
+        <v>0.01062920481164653</v>
       </c>
       <c r="E18">
-        <v>0.6082153024573813</v>
+        <v>2.347066349565637</v>
       </c>
       <c r="F18">
-        <v>1.011706473618602</v>
+        <v>2.741897773018451</v>
       </c>
       <c r="G18">
-        <v>0.002327897345802834</v>
+        <v>0.0006967777209268073</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7617883241393031</v>
+        <v>2.079875626933799</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.385415803844865</v>
+        <v>9.232928798362309</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.001622926667334212</v>
+        <v>0.005035001012799967</v>
       </c>
       <c r="D19">
-        <v>0.002655904110092422</v>
+        <v>0.01049874354102087</v>
       </c>
       <c r="E19">
-        <v>0.602977273329472</v>
+        <v>2.32239654899503</v>
       </c>
       <c r="F19">
-        <v>1.005805459256607</v>
+        <v>2.715422182796289</v>
       </c>
       <c r="G19">
-        <v>0.002328279561562133</v>
+        <v>0.0006974617567990004</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7573093800281043</v>
+        <v>2.059752154711958</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.365597423164161</v>
+        <v>9.14339149121065</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.001678687496838194</v>
+        <v>0.005248100221429297</v>
       </c>
       <c r="D20">
-        <v>0.002740661672977041</v>
+        <v>0.01109310271292685</v>
       </c>
       <c r="E20">
-        <v>0.6265649991966171</v>
+        <v>2.434198206272853</v>
       </c>
       <c r="F20">
-        <v>1.032399250097285</v>
+        <v>2.835130204803107</v>
       </c>
       <c r="G20">
-        <v>0.002326569795314328</v>
+        <v>0.0006943854453134441</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7774941886937228</v>
+        <v>2.1507435237137</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.454912760925026</v>
+        <v>9.54828550366841</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.001866452803508167</v>
+        <v>0.005979202975311182</v>
       </c>
       <c r="D21">
-        <v>0.003028637276567991</v>
+        <v>0.01323531533252975</v>
       </c>
       <c r="E21">
-        <v>0.7061114294735376</v>
+        <v>2.825421672944344</v>
       </c>
       <c r="F21">
-        <v>1.122433776554914</v>
+        <v>3.248333981345695</v>
       </c>
       <c r="G21">
-        <v>0.00232100394812837</v>
+        <v>0.0006840644289088343</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8458272088643071</v>
+        <v>2.464907296063387</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.757310958386086</v>
+        <v>10.94699833237502</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.001989475412958797</v>
+        <v>0.006471052459946947</v>
       </c>
       <c r="D22">
-        <v>0.003219381215675554</v>
+        <v>0.01476868495268846</v>
       </c>
       <c r="E22">
-        <v>0.758337397378142</v>
+        <v>3.095278614990718</v>
       </c>
       <c r="F22">
-        <v>1.181795479378252</v>
+        <v>3.52808630835716</v>
       </c>
       <c r="G22">
-        <v>0.00231749884163381</v>
+        <v>0.0006773048809356344</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8908781354258366</v>
+        <v>2.67768201740968</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.956702928797938</v>
+        <v>11.89497851262723</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.001923788025923301</v>
+        <v>0.006207058287284184</v>
       </c>
       <c r="D23">
-        <v>0.003117335930284071</v>
+        <v>0.01393629075597147</v>
       </c>
       <c r="E23">
-        <v>0.7304404936381701</v>
+        <v>2.949770951391045</v>
       </c>
       <c r="F23">
-        <v>1.150064900034494</v>
+        <v>3.377784185034244</v>
       </c>
       <c r="G23">
-        <v>0.002319357505463993</v>
+        <v>0.0006809156631581977</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8667973049203681</v>
+        <v>2.56335708446214</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.850120629423088</v>
+        <v>11.38555575188764</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.001675623802700699</v>
+        <v>0.005236347138499298</v>
       </c>
       <c r="D24">
-        <v>0.002735995522193946</v>
+        <v>0.01105997344803455</v>
       </c>
       <c r="E24">
-        <v>0.6252686099535794</v>
+        <v>2.428005756549027</v>
       </c>
       <c r="F24">
-        <v>1.030936301482171</v>
+        <v>2.82851850697395</v>
       </c>
       <c r="G24">
-        <v>0.002326663013292429</v>
+        <v>0.0006945542667424175</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7763838179350273</v>
+        <v>2.145717623099614</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.449999383836428</v>
+        <v>9.525918711586371</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.001409279053683932</v>
+        <v>0.004233038155801339</v>
       </c>
       <c r="D25">
-        <v>0.002334584835189446</v>
+        <v>0.008379643469169196</v>
       </c>
       <c r="E25">
-        <v>0.5127283134970355</v>
+        <v>1.91067584522014</v>
       </c>
       <c r="F25">
-        <v>0.9046007503700224</v>
+        <v>2.268545611566694</v>
       </c>
       <c r="G25">
-        <v>0.002335116705033783</v>
+        <v>0.0007093588917433946</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6804888268094231</v>
+        <v>1.720168068184208</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.025721714252654</v>
+        <v>7.63314850386422</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003518115759172602</v>
+        <v>0.1362762593960838</v>
       </c>
       <c r="D2">
-        <v>0.006642437854520011</v>
+        <v>0.05648762327091106</v>
       </c>
       <c r="E2">
-        <v>1.55566484878311</v>
+        <v>0.06826677104183609</v>
       </c>
       <c r="F2">
-        <v>1.875886600853093</v>
+        <v>0.8445282846635678</v>
       </c>
       <c r="G2">
-        <v>0.0007204789689702517</v>
+        <v>0.7704019958823665</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003081001504033121</v>
       </c>
       <c r="I2">
-        <v>1.421898502779925</v>
+        <v>0.001546391423303817</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5500207750524311</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7640494753523512</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.59797171167088</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.06996692013670014</v>
       </c>
       <c r="O2">
-        <v>6.307730098780837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7764997781686418</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.003043403720985438</v>
+        <v>0.1211468492947461</v>
       </c>
       <c r="D3">
-        <v>0.005565408747743916</v>
+        <v>0.0537417899100916</v>
       </c>
       <c r="E3">
-        <v>1.326205296570151</v>
+        <v>0.06186758474209952</v>
       </c>
       <c r="F3">
-        <v>1.618701688777321</v>
+        <v>0.7950242793648243</v>
       </c>
       <c r="G3">
-        <v>0.0007282076964610073</v>
+        <v>0.7291595271440201</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005134887933850418</v>
       </c>
       <c r="I3">
-        <v>1.226591802238644</v>
+        <v>0.003121982105605436</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.536598661289716</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7255003185775664</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.132358618368812</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06451428516605162</v>
       </c>
       <c r="O3">
-        <v>5.440399268552994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6768371618182485</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002755456162876868</v>
+        <v>0.1117629901118562</v>
       </c>
       <c r="D4">
-        <v>0.004941238201007891</v>
+        <v>0.05205048150620684</v>
       </c>
       <c r="E4">
-        <v>1.1894666142787</v>
+        <v>0.05791810731786917</v>
       </c>
       <c r="F4">
-        <v>1.464263074801508</v>
+        <v>0.7653601511330521</v>
       </c>
       <c r="G4">
-        <v>0.0007330636034594828</v>
+        <v>0.7044859956595388</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.006708591596619351</v>
       </c>
       <c r="I4">
-        <v>1.10933058183717</v>
+        <v>0.004517025283382381</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5287722944948285</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7020862776794488</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.846501448270317</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.06117060781841488</v>
       </c>
       <c r="O4">
-        <v>4.919871494112499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6156173870266173</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002638839087271805</v>
+        <v>0.107583225103852</v>
       </c>
       <c r="D5">
-        <v>0.004694650207714091</v>
+        <v>0.05142340367449094</v>
       </c>
       <c r="E5">
-        <v>1.134615199638148</v>
+        <v>0.05624591982496163</v>
       </c>
       <c r="F5">
-        <v>1.40207934259054</v>
+        <v>0.75229512125415</v>
       </c>
       <c r="G5">
-        <v>0.0007350722318449932</v>
+        <v>0.6933214426197338</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00743035668590783</v>
       </c>
       <c r="I5">
-        <v>1.062120111888476</v>
+        <v>0.005268721628829631</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.525034599667805</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6913928178652</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.730078441610317</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.05983223321169007</v>
       </c>
       <c r="O5">
-        <v>4.710348188083628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5905166985016379</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002619514296805292</v>
+        <v>0.1064852930390217</v>
       </c>
       <c r="D6">
-        <v>0.004654131597934708</v>
+        <v>0.05139755848478345</v>
       </c>
       <c r="E6">
-        <v>1.125555087158759</v>
+        <v>0.05589871476828101</v>
       </c>
       <c r="F6">
-        <v>1.391795807124041</v>
+        <v>0.7487348782758829</v>
       </c>
       <c r="G6">
-        <v>0.0007354076190723223</v>
+        <v>0.6899379413332696</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.007561591187121741</v>
       </c>
       <c r="I6">
-        <v>1.054312973018085</v>
+        <v>0.005505863547404566</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5236299899490007</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6881439264619189</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.71085309340009</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.05963972836311626</v>
       </c>
       <c r="O6">
-        <v>4.675702148011794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5861765859639263</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002753880691987121</v>
+        <v>0.1106027064552535</v>
       </c>
       <c r="D7">
-        <v>0.004937883104730645</v>
+        <v>0.05225737291054955</v>
       </c>
       <c r="E7">
-        <v>1.18872355696405</v>
+        <v>0.05770631657328806</v>
       </c>
       <c r="F7">
-        <v>1.463421554321926</v>
+        <v>0.7613541336976226</v>
       </c>
       <c r="G7">
-        <v>0.0007330905692341605</v>
+        <v>0.7001290407213219</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00673560559259323</v>
       </c>
       <c r="I7">
-        <v>1.108691676466606</v>
+        <v>0.004798380894803778</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5265649305595588</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6979036500265252</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.84522573334192</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06123434469776967</v>
       </c>
       <c r="O7">
-        <v>4.917035810343009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6148089983160219</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.00335359690719983</v>
+        <v>0.1295996793499938</v>
       </c>
       <c r="D8">
-        <v>0.006262356905359923</v>
+        <v>0.05583361850286295</v>
       </c>
       <c r="E8">
-        <v>1.475574751987509</v>
+        <v>0.06581167488655737</v>
       </c>
       <c r="F8">
-        <v>1.786410600747118</v>
+        <v>0.8222218103545984</v>
       </c>
       <c r="G8">
-        <v>0.0007231222053220823</v>
+        <v>0.7504630438417337</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003738530581138155</v>
       </c>
       <c r="I8">
-        <v>1.353945487933956</v>
+        <v>0.002312818189180277</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5424545745207325</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7453422140685007</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.437777731838878</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.06819599930651776</v>
       </c>
       <c r="O8">
-        <v>6.005909939732646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7415047571874425</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.004566520247948347</v>
+        <v>0.1682296287909679</v>
       </c>
       <c r="D9">
-        <v>0.009238535903847378</v>
+        <v>0.06241827979400227</v>
       </c>
       <c r="E9">
-        <v>2.080150551991068</v>
+        <v>0.08193867182327708</v>
       </c>
       <c r="F9">
-        <v>2.453626078189473</v>
+        <v>0.9549607447987398</v>
       </c>
       <c r="G9">
-        <v>0.000704346118818366</v>
+        <v>0.8625467896933827</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0005050537400324018</v>
       </c>
       <c r="I9">
-        <v>1.860794532613468</v>
+        <v>0.0006924899581264299</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5810604798320469</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8480187285077676</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.601062299146008</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.08178261187191538</v>
       </c>
       <c r="O9">
-        <v>8.258400942964272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.990938923837831</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.005495583858650122</v>
+        <v>0.1924640510303846</v>
       </c>
       <c r="D10">
-        <v>0.01180023278515918</v>
+        <v>0.06854024255238755</v>
       </c>
       <c r="E10">
-        <v>2.565303474275481</v>
+        <v>0.08977577475468479</v>
       </c>
       <c r="F10">
-        <v>2.974593910482696</v>
+        <v>1.036604908710487</v>
       </c>
       <c r="G10">
-        <v>0.000690852689388775</v>
+        <v>0.926568908252392</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0001972217198562554</v>
       </c>
       <c r="I10">
-        <v>2.256764885090945</v>
+        <v>0.002168967013759904</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.600463391804098</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9048693384652893</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.468211667299329</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.08632034821701495</v>
       </c>
       <c r="O10">
-        <v>10.02018155099915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.163316421274459</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.005931073796478614</v>
+        <v>0.1737608724786384</v>
       </c>
       <c r="D11">
-        <v>0.01308930171089173</v>
+        <v>0.08356442846362455</v>
       </c>
       <c r="E11">
-        <v>2.799302802325812</v>
+        <v>0.06445279960283479</v>
       </c>
       <c r="F11">
-        <v>3.221026994759711</v>
+        <v>0.9095477361507278</v>
       </c>
       <c r="G11">
-        <v>0.0006847334768761197</v>
+        <v>0.7779681931511533</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01877315214500896</v>
       </c>
       <c r="I11">
-        <v>2.444141406636646</v>
+        <v>0.003345120886113051</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5190404536696178</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7707872599759185</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.944048024761059</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05292982432752247</v>
       </c>
       <c r="O11">
-        <v>10.85450883921902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.143653950298471</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.006098334649959014</v>
+        <v>0.156228054945359</v>
       </c>
       <c r="D12">
-        <v>0.01359980660341265</v>
+        <v>0.09665452314789746</v>
       </c>
       <c r="E12">
-        <v>2.890292991878368</v>
+        <v>0.04901142209389597</v>
       </c>
       <c r="F12">
-        <v>3.315981211504635</v>
+        <v>0.7968806272942999</v>
       </c>
       <c r="G12">
-        <v>0.0006824143232656117</v>
+        <v>0.6550475696816136</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05742844470520225</v>
       </c>
       <c r="I12">
-        <v>2.516352879844362</v>
+        <v>0.003474588363766351</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4539602246272096</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6603326051056229</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.165381259157016</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0416901707885331</v>
       </c>
       <c r="O12">
-        <v>11.17615482988475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.091255672137855</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.006062198138717889</v>
+        <v>0.1369087862949954</v>
       </c>
       <c r="D13">
-        <v>0.01348878120571939</v>
+        <v>0.1091701340147679</v>
       </c>
       <c r="E13">
-        <v>2.870582210304534</v>
+        <v>0.03995725227963387</v>
       </c>
       <c r="F13">
-        <v>3.29545342447642</v>
+        <v>0.6826600209664377</v>
       </c>
       <c r="G13">
-        <v>0.0006829139648933291</v>
+        <v>0.5380648860292752</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.113148038518375</v>
       </c>
       <c r="I13">
-        <v>2.500741157207912</v>
+        <v>0.003081424577921155</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3941871510925239</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5554402443554523</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.201600567522291</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04668449125929008</v>
       </c>
       <c r="O13">
-        <v>11.1066114340764</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.010319849148573</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.005944784017266613</v>
+        <v>0.1227078740582783</v>
       </c>
       <c r="D14">
-        <v>0.01313082304936941</v>
+        <v>0.117923188821095</v>
       </c>
       <c r="E14">
-        <v>2.806737875639428</v>
+        <v>0.0374917468605791</v>
       </c>
       <c r="F14">
-        <v>3.228804390552853</v>
+        <v>0.6025826597006798</v>
       </c>
       <c r="G14">
-        <v>0.0006845427475697287</v>
+        <v>0.459887145336026</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624967527549046</v>
       </c>
       <c r="I14">
-        <v>2.450055750782752</v>
+        <v>0.002695674091019562</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3551707189511433</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4853811604850762</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.143087249079201</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05971210697124718</v>
       </c>
       <c r="O14">
-        <v>10.88085029621425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9412318720220654</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.005873187586971085</v>
+        <v>0.1184301484960173</v>
       </c>
       <c r="D15">
-        <v>0.01291462946959143</v>
+        <v>0.1197921884830748</v>
       </c>
       <c r="E15">
-        <v>2.767956929079872</v>
+        <v>0.03730500776955337</v>
       </c>
       <c r="F15">
-        <v>3.188201995857099</v>
+        <v>0.5810429168636588</v>
       </c>
       <c r="G15">
-        <v>0.0006855400175432378</v>
+        <v>0.4399461006486547</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.175017285388094</v>
       </c>
       <c r="I15">
-        <v>2.419180057765175</v>
+        <v>0.002620256885014882</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3457272299037726</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4675178936921256</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.088835311441528</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06387812874399756</v>
       </c>
       <c r="O15">
-        <v>10.74333994796024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.918341113298716</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.005467422383134135</v>
+        <v>0.1119843182015643</v>
       </c>
       <c r="D16">
-        <v>0.01171884615006391</v>
+        <v>0.1142523082333256</v>
       </c>
       <c r="E16">
-        <v>2.550316357013557</v>
+        <v>0.03602434898075435</v>
       </c>
       <c r="F16">
-        <v>2.958701557036193</v>
+        <v>0.5681486140163514</v>
       </c>
       <c r="G16">
-        <v>0.0006912525965545591</v>
+        <v>0.4351619391098467</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624241899613565</v>
       </c>
       <c r="I16">
-        <v>2.24468265806135</v>
+        <v>0.002007861669078181</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3486733113569613</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4639288925652991</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.704008103220815</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0606638220204907</v>
       </c>
       <c r="O16">
-        <v>9.966397498292451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.8626902019997331</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.005222111143563524</v>
+        <v>0.1142504447094481</v>
       </c>
       <c r="D17">
-        <v>0.01101990009746245</v>
+        <v>0.1052935406534701</v>
       </c>
       <c r="E17">
-        <v>2.420509215818782</v>
+        <v>0.03563318994125869</v>
       </c>
       <c r="F17">
-        <v>2.820511488454173</v>
+        <v>0.5999744349441158</v>
       </c>
       <c r="G17">
-        <v>0.0006947588831374269</v>
+        <v>0.4718324993012146</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1247930499762191</v>
       </c>
       <c r="I17">
-        <v>2.1396311091424</v>
+        <v>0.001823477313696031</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3711622905674119</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4971845613189743</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.441056982008661</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04979234022967916</v>
       </c>
       <c r="O17">
-        <v>9.4988322593166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.8562908457676528</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.005082188282919731</v>
+        <v>0.1257856456310265</v>
       </c>
       <c r="D18">
-        <v>0.01062920481164653</v>
+        <v>0.09297173076211607</v>
       </c>
       <c r="E18">
-        <v>2.347066349565637</v>
+        <v>0.03956661933349093</v>
       </c>
       <c r="F18">
-        <v>2.741897773018451</v>
+        <v>0.6796080061446474</v>
       </c>
       <c r="G18">
-        <v>0.0006967777209268073</v>
+        <v>0.5558835671239279</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07200743894678396</v>
       </c>
       <c r="I18">
-        <v>2.079875626933799</v>
+        <v>0.00154996711746147</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4166909852258698</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5728942011868838</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.253122293561262</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03980532341173593</v>
       </c>
       <c r="O18">
-        <v>9.232928798362309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8921543065434392</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.005035001012799967</v>
+        <v>0.1438519094887027</v>
       </c>
       <c r="D19">
-        <v>0.01049874354102087</v>
+        <v>0.0808180035061099</v>
       </c>
       <c r="E19">
-        <v>2.32239654899503</v>
+        <v>0.05195135022844077</v>
       </c>
       <c r="F19">
-        <v>2.715422182796289</v>
+        <v>0.791871425396323</v>
       </c>
       <c r="G19">
-        <v>0.0006974617567990004</v>
+        <v>0.6743977621029416</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02663860696811327</v>
       </c>
       <c r="I19">
-        <v>2.059752154711958</v>
+        <v>0.001714078900614702</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4783459404754069</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6789866724166203</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.140737223606379</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04392534079870991</v>
       </c>
       <c r="O19">
-        <v>9.14339149121065</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9595860957554905</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.005248100221429297</v>
+        <v>0.1824626935873681</v>
       </c>
       <c r="D20">
-        <v>0.01109310271292685</v>
+        <v>0.06771876515340836</v>
       </c>
       <c r="E20">
-        <v>2.434198206272853</v>
+        <v>0.08695844363256455</v>
       </c>
       <c r="F20">
-        <v>2.835130204803107</v>
+        <v>1.002078370726267</v>
       </c>
       <c r="G20">
-        <v>0.0006943854453134441</v>
+        <v>0.8954956156703702</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001331717873638283</v>
       </c>
       <c r="I20">
-        <v>2.1507435237137</v>
+        <v>0.002324516810856103</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5881064381153465</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.876455081662634</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.24133144770741</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.08513004624298048</v>
       </c>
       <c r="O20">
-        <v>9.54828550366841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.116003187123383</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.005979202975311182</v>
+        <v>0.2069817887692835</v>
       </c>
       <c r="D21">
-        <v>0.01323531533252975</v>
+        <v>0.0704574969256484</v>
       </c>
       <c r="E21">
-        <v>2.825421672944344</v>
+        <v>0.09918536625846386</v>
       </c>
       <c r="F21">
-        <v>3.248333981345695</v>
+        <v>1.098489701929523</v>
       </c>
       <c r="G21">
-        <v>0.0006840644289088343</v>
+        <v>0.9812742388003102</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0003060640548233629</v>
       </c>
       <c r="I21">
-        <v>2.464907296063387</v>
+        <v>0.004274696495942365</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6216856354483298</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9522421068771365</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.894595929626519</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.09733230241209156</v>
       </c>
       <c r="O21">
-        <v>10.94699833237502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.266253476049968</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.006471052459946947</v>
+        <v>0.2228175035898374</v>
       </c>
       <c r="D22">
-        <v>0.01476868495268846</v>
+        <v>0.07254434159802514</v>
       </c>
       <c r="E22">
-        <v>3.095278614990718</v>
+        <v>0.1054670995268552</v>
       </c>
       <c r="F22">
-        <v>3.52808630835716</v>
+        <v>1.158139337956783</v>
       </c>
       <c r="G22">
-        <v>0.0006773048809356344</v>
+        <v>1.033453845731415</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.000939929362143932</v>
       </c>
       <c r="I22">
-        <v>2.67768201740968</v>
+        <v>0.005852484100394406</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6416919093345541</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9982014096244782</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.3272199707298</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1023619731717673</v>
       </c>
       <c r="O22">
-        <v>11.89497851262723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.359697389013178</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.006207058287284184</v>
+        <v>0.2157082965385513</v>
       </c>
       <c r="D23">
-        <v>0.01393629075597147</v>
+        <v>0.07114937109510322</v>
       </c>
       <c r="E23">
-        <v>2.949770951391045</v>
+        <v>0.1023414294954925</v>
       </c>
       <c r="F23">
-        <v>3.377784185034244</v>
+        <v>1.130722006533261</v>
       </c>
       <c r="G23">
-        <v>0.0006809156631581977</v>
+        <v>1.010467876414268</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0005644629340024743</v>
       </c>
       <c r="I23">
-        <v>2.56335708446214</v>
+        <v>0.004685269598599717</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6334726178547641</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9784127263987727</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.095891653490867</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.09956729302520273</v>
       </c>
       <c r="O23">
-        <v>11.38555575188764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.310391076820466</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.005236347138499298</v>
+        <v>0.1867524285733424</v>
       </c>
       <c r="D24">
-        <v>0.01105997344803455</v>
+        <v>0.06631345939680955</v>
       </c>
       <c r="E24">
-        <v>2.428005756549027</v>
+        <v>0.09020592337513378</v>
       </c>
       <c r="F24">
-        <v>2.82851850697395</v>
+        <v>1.02243498373754</v>
       </c>
       <c r="G24">
-        <v>0.0006945542667424175</v>
+        <v>0.9181058811967802</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.904218761651705E-06</v>
       </c>
       <c r="I24">
-        <v>2.145717623099614</v>
+        <v>0.001871724069490988</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5997422157648202</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8971835225405158</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.22320063812208</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.08924571031679918</v>
       </c>
       <c r="O24">
-        <v>9.525918711586371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.123312313723218</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.004233038155801339</v>
+        <v>0.1557914678444519</v>
       </c>
       <c r="D25">
-        <v>0.008379643469169196</v>
+        <v>0.06105113505570614</v>
       </c>
       <c r="E25">
-        <v>1.91067584522014</v>
+        <v>0.07723231976514455</v>
       </c>
       <c r="F25">
-        <v>2.268545611566694</v>
+        <v>0.9113077318023244</v>
       </c>
       <c r="G25">
-        <v>0.0007093588917433946</v>
+        <v>0.8238819937219972</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001078982315620758</v>
       </c>
       <c r="I25">
-        <v>1.720168068184208</v>
+        <v>0.001125046655484851</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5663102512309592</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8126019108372375</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.286416877913894</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07824625820232001</v>
       </c>
       <c r="O25">
-        <v>7.63314850386422</v>
+        <v>0.9225118893170361</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1362762593960838</v>
+        <v>0.08555669851475756</v>
       </c>
       <c r="D2">
-        <v>0.05648762327091106</v>
+        <v>0.06394846660039377</v>
       </c>
       <c r="E2">
-        <v>0.06826677104183609</v>
+        <v>0.06119504877392501</v>
       </c>
       <c r="F2">
-        <v>0.8445282846635678</v>
+        <v>0.6938887259733946</v>
       </c>
       <c r="G2">
-        <v>0.7704019958823665</v>
+        <v>0.5896913397545234</v>
       </c>
       <c r="H2">
-        <v>0.003081001504033121</v>
+        <v>0.002404361057711468</v>
       </c>
       <c r="I2">
-        <v>0.001546391423303817</v>
+        <v>0.001030736152892509</v>
       </c>
       <c r="J2">
-        <v>0.5500207750524311</v>
+        <v>0.4889778925338959</v>
       </c>
       <c r="K2">
-        <v>0.7640494753523512</v>
+        <v>0.5984976348409177</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.273263783604321</v>
       </c>
       <c r="M2">
-        <v>3.59797171167088</v>
+        <v>0.182061780912008</v>
       </c>
       <c r="N2">
-        <v>0.06996692013670014</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7764997781686418</v>
+        <v>3.61964949766724</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.08038432630581127</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7591245703241896</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1211468492947461</v>
+        <v>0.0762481808718718</v>
       </c>
       <c r="D3">
-        <v>0.0537417899100916</v>
+        <v>0.05915857554697368</v>
       </c>
       <c r="E3">
-        <v>0.06186758474209952</v>
+        <v>0.05604762360059823</v>
       </c>
       <c r="F3">
-        <v>0.7950242793648243</v>
+        <v>0.6631094275185703</v>
       </c>
       <c r="G3">
-        <v>0.7291595271440201</v>
+        <v>0.5705899989459198</v>
       </c>
       <c r="H3">
-        <v>0.005134887933850418</v>
+        <v>0.004022545178014703</v>
       </c>
       <c r="I3">
-        <v>0.003121982105605436</v>
+        <v>0.00196779268681313</v>
       </c>
       <c r="J3">
-        <v>0.536598661289716</v>
+        <v>0.4807551021994954</v>
       </c>
       <c r="K3">
-        <v>0.7255003185775664</v>
+        <v>0.5786307534308222</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2723878945501568</v>
       </c>
       <c r="M3">
-        <v>3.132358618368812</v>
+        <v>0.1689996676887411</v>
       </c>
       <c r="N3">
-        <v>0.06451428516605162</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6768371618182485</v>
+        <v>3.152756313740838</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.07499201711123149</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6623969819682571</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1117629901118562</v>
+        <v>0.07047340695345383</v>
       </c>
       <c r="D4">
-        <v>0.05205048150620684</v>
+        <v>0.05623857845126423</v>
       </c>
       <c r="E4">
-        <v>0.05791810731786917</v>
+        <v>0.05285680826773564</v>
       </c>
       <c r="F4">
-        <v>0.7653601511330521</v>
+        <v>0.6447040771074128</v>
       </c>
       <c r="G4">
-        <v>0.7044859956595388</v>
+        <v>0.5594845657239205</v>
       </c>
       <c r="H4">
-        <v>0.006708591596619351</v>
+        <v>0.005265178019980332</v>
       </c>
       <c r="I4">
-        <v>0.004517025283382381</v>
+        <v>0.00286333520884563</v>
       </c>
       <c r="J4">
-        <v>0.5287722944948285</v>
+        <v>0.4757724596066026</v>
       </c>
       <c r="K4">
-        <v>0.7020862776794488</v>
+        <v>0.5664786349916398</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2716339911200834</v>
       </c>
       <c r="M4">
-        <v>2.846501448270317</v>
+        <v>0.1617628406148839</v>
       </c>
       <c r="N4">
-        <v>0.06117060781841488</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6156173870266173</v>
+        <v>2.865901754514113</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.07169295248843</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6029102284858681</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.107583225103852</v>
+        <v>0.06787166533022315</v>
       </c>
       <c r="D5">
-        <v>0.05142340367449094</v>
+        <v>0.05512859807893733</v>
       </c>
       <c r="E5">
-        <v>0.05624591982496163</v>
+        <v>0.05150029190915006</v>
       </c>
       <c r="F5">
-        <v>0.75229512125415</v>
+        <v>0.6363710170749854</v>
       </c>
       <c r="G5">
-        <v>0.6933214426197338</v>
+        <v>0.5541014305691903</v>
       </c>
       <c r="H5">
-        <v>0.00743035668590783</v>
+        <v>0.005835731618250239</v>
       </c>
       <c r="I5">
-        <v>0.005268721628829631</v>
+        <v>0.003395844856059149</v>
       </c>
       <c r="J5">
-        <v>0.525034599667805</v>
+        <v>0.4732171107392702</v>
       </c>
       <c r="K5">
-        <v>0.6913928178652</v>
+        <v>0.5605753483804818</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2708486292033143</v>
       </c>
       <c r="M5">
-        <v>2.730078441610317</v>
+        <v>0.158710840243522</v>
       </c>
       <c r="N5">
-        <v>0.05983223321169007</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5905166985016379</v>
+        <v>2.749017938748153</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.07037434586089475</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.578512603256641</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1064852930390217</v>
+        <v>0.06715755338197482</v>
       </c>
       <c r="D6">
-        <v>0.05139755848478345</v>
+        <v>0.05503686761958448</v>
       </c>
       <c r="E6">
-        <v>0.05589871476828101</v>
+        <v>0.05121603080147707</v>
       </c>
       <c r="F6">
-        <v>0.7487348782758829</v>
+        <v>0.6338381888379345</v>
       </c>
       <c r="G6">
-        <v>0.6899379413332696</v>
+        <v>0.5519933989732948</v>
       </c>
       <c r="H6">
-        <v>0.007561591187121741</v>
+        <v>0.005939512413243531</v>
       </c>
       <c r="I6">
-        <v>0.005505863547404566</v>
+        <v>0.003608699159659778</v>
       </c>
       <c r="J6">
-        <v>0.5236299899490007</v>
+        <v>0.4721350997789671</v>
       </c>
       <c r="K6">
-        <v>0.6881439264619189</v>
+        <v>0.5584254184785777</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2701988460671103</v>
       </c>
       <c r="M6">
-        <v>2.71085309340009</v>
+        <v>0.1578528453295043</v>
       </c>
       <c r="N6">
-        <v>0.05963972836311626</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5861765859639263</v>
+        <v>2.729704125966322</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.07018455156777037</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5743038698643872</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1106027064552535</v>
+        <v>0.06987733429786402</v>
       </c>
       <c r="D7">
-        <v>0.05225737291054955</v>
+        <v>0.0566330416461156</v>
       </c>
       <c r="E7">
-        <v>0.05770631657328806</v>
+        <v>0.05270661782740049</v>
       </c>
       <c r="F7">
-        <v>0.7613541336976226</v>
+        <v>0.639537725447191</v>
       </c>
       <c r="G7">
-        <v>0.7001290407213219</v>
+        <v>0.5584405258588987</v>
       </c>
       <c r="H7">
-        <v>0.00673560559259323</v>
+        <v>0.005292227668127925</v>
       </c>
       <c r="I7">
-        <v>0.004798380894803778</v>
+        <v>0.003182678396835392</v>
       </c>
       <c r="J7">
-        <v>0.5265649305595588</v>
+        <v>0.468255688744577</v>
       </c>
       <c r="K7">
-        <v>0.6979036500265252</v>
+        <v>0.5617773993629029</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2696232406992074</v>
       </c>
       <c r="M7">
-        <v>2.84522573334192</v>
+        <v>0.1602500725619862</v>
       </c>
       <c r="N7">
-        <v>0.06123434469776967</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6148089983160219</v>
+        <v>2.864431215905995</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.07170111220161957</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6022683344602981</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1295996793499938</v>
+        <v>0.08203162796826291</v>
       </c>
       <c r="D8">
-        <v>0.05583361850286295</v>
+        <v>0.06317373118487524</v>
       </c>
       <c r="E8">
-        <v>0.06581167488655737</v>
+        <v>0.0593095006578519</v>
       </c>
       <c r="F8">
-        <v>0.8222218103545984</v>
+        <v>0.6727579117947684</v>
       </c>
       <c r="G8">
-        <v>0.7504630438417337</v>
+        <v>0.5865188076983969</v>
       </c>
       <c r="H8">
-        <v>0.003738530581138155</v>
+        <v>0.002934844567320849</v>
       </c>
       <c r="I8">
-        <v>0.002312818189180277</v>
+        <v>0.001657155106601138</v>
       </c>
       <c r="J8">
-        <v>0.5424545745207325</v>
+        <v>0.4652374963416577</v>
       </c>
       <c r="K8">
-        <v>0.7453422140685007</v>
+        <v>0.5827532060565233</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2693756249554298</v>
       </c>
       <c r="M8">
-        <v>3.437777731838878</v>
+        <v>0.174350907513098</v>
       </c>
       <c r="N8">
-        <v>0.06819599930651776</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7415047571874425</v>
+        <v>3.458471230866451</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.07845450030103507</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7255947747111904</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1682296287909679</v>
+        <v>0.1061528059948813</v>
       </c>
       <c r="D9">
-        <v>0.06241827979400227</v>
+        <v>0.07514610763525553</v>
       </c>
       <c r="E9">
-        <v>0.08193867182327708</v>
+        <v>0.07223884955425497</v>
       </c>
       <c r="F9">
-        <v>0.9549607447987398</v>
+        <v>0.7548130307513645</v>
       </c>
       <c r="G9">
-        <v>0.8625467896933827</v>
+        <v>0.6444345501403177</v>
       </c>
       <c r="H9">
-        <v>0.0005050537400324018</v>
+        <v>0.0003917674704045915</v>
       </c>
       <c r="I9">
-        <v>0.0006924899581264299</v>
+        <v>0.0009098410979309079</v>
       </c>
       <c r="J9">
-        <v>0.5810604798320469</v>
+        <v>0.4832789631308856</v>
       </c>
       <c r="K9">
-        <v>0.8480187285077676</v>
+        <v>0.6353003548278195</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2717198338809226</v>
       </c>
       <c r="M9">
-        <v>4.601062299146008</v>
+        <v>0.2119973477111117</v>
       </c>
       <c r="N9">
-        <v>0.08178261187191538</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.990938923837831</v>
+        <v>4.62330714178978</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.09187643065705942</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9673030358559771</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1924640510303846</v>
+        <v>0.1229378760378381</v>
       </c>
       <c r="D10">
-        <v>0.06854024255238755</v>
+        <v>0.08658981385816134</v>
       </c>
       <c r="E10">
-        <v>0.08977577475468479</v>
+        <v>0.07835196289087776</v>
       </c>
       <c r="F10">
-        <v>1.036604908710487</v>
+        <v>0.7924235159067763</v>
       </c>
       <c r="G10">
-        <v>0.926568908252392</v>
+        <v>0.6891131696776114</v>
       </c>
       <c r="H10">
-        <v>0.0001972217198562554</v>
+        <v>0.0001946191410042708</v>
       </c>
       <c r="I10">
-        <v>0.002168967013759904</v>
+        <v>0.002369155314526417</v>
       </c>
       <c r="J10">
-        <v>0.600463391804098</v>
+        <v>0.4583496443836594</v>
       </c>
       <c r="K10">
-        <v>0.9048693384652893</v>
+        <v>0.6523960721499265</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2645631077905648</v>
       </c>
       <c r="M10">
-        <v>5.468211667299329</v>
+        <v>0.2349775537669743</v>
       </c>
       <c r="N10">
-        <v>0.08632034821701495</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.163316421274459</v>
+        <v>5.488719281245665</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.09548621896654907</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.134733245003417</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1737608724786384</v>
+        <v>0.1166069723733401</v>
       </c>
       <c r="D11">
-        <v>0.08356442846362455</v>
+        <v>0.1075079088674755</v>
       </c>
       <c r="E11">
-        <v>0.06445279960283479</v>
+        <v>0.05659427312334842</v>
       </c>
       <c r="F11">
-        <v>0.9095477361507278</v>
+        <v>0.6737033185957486</v>
       </c>
       <c r="G11">
-        <v>0.7779681931511533</v>
+        <v>0.6039909381169508</v>
       </c>
       <c r="H11">
-        <v>0.01877315214500896</v>
+        <v>0.01876217586236706</v>
       </c>
       <c r="I11">
-        <v>0.003345120886113051</v>
+        <v>0.003531172504117386</v>
       </c>
       <c r="J11">
-        <v>0.5190404536696178</v>
+        <v>0.3474910059947192</v>
       </c>
       <c r="K11">
-        <v>0.7707872599759185</v>
+        <v>0.5398231556856672</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2194570695504794</v>
       </c>
       <c r="M11">
-        <v>5.944048024761059</v>
+        <v>0.1972353656836532</v>
       </c>
       <c r="N11">
-        <v>0.05292982432752247</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.143653950298471</v>
+        <v>5.960340929068025</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.05728915682498759</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.118476818066043</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.156228054945359</v>
+        <v>0.1087964720697698</v>
       </c>
       <c r="D12">
-        <v>0.09665452314789746</v>
+        <v>0.1235449813871412</v>
       </c>
       <c r="E12">
-        <v>0.04901142209389597</v>
+        <v>0.04384514678312446</v>
       </c>
       <c r="F12">
-        <v>0.7968806272942999</v>
+        <v>0.5825560892460118</v>
       </c>
       <c r="G12">
-        <v>0.6550475696816136</v>
+        <v>0.5232819940079594</v>
       </c>
       <c r="H12">
-        <v>0.05742844470520225</v>
+        <v>0.05742157641257961</v>
       </c>
       <c r="I12">
-        <v>0.003474588363766351</v>
+        <v>0.003639771429065242</v>
       </c>
       <c r="J12">
-        <v>0.4539602246272096</v>
+        <v>0.2903125593913884</v>
       </c>
       <c r="K12">
-        <v>0.6603326051056229</v>
+        <v>0.4582814947979372</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1896698915313664</v>
       </c>
       <c r="M12">
-        <v>6.165381259157016</v>
+        <v>0.1664444142166062</v>
       </c>
       <c r="N12">
-        <v>0.0416901707885331</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.091255672137855</v>
+        <v>6.179079468423311</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.04300536909172603</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.069458734569182</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1369087862949954</v>
+        <v>0.09795709398290597</v>
       </c>
       <c r="D13">
-        <v>0.1091701340147679</v>
+        <v>0.1359097896561821</v>
       </c>
       <c r="E13">
-        <v>0.03995725227963387</v>
+        <v>0.03707511941900699</v>
       </c>
       <c r="F13">
-        <v>0.6826600209664377</v>
+        <v>0.5041560726305576</v>
       </c>
       <c r="G13">
-        <v>0.5380648860292752</v>
+        <v>0.4325862190022605</v>
       </c>
       <c r="H13">
-        <v>0.113148038518375</v>
+        <v>0.113151601232218</v>
       </c>
       <c r="I13">
-        <v>0.003081424577921155</v>
+        <v>0.003319569265361366</v>
       </c>
       <c r="J13">
-        <v>0.3941871510925239</v>
+        <v>0.2651499444593099</v>
       </c>
       <c r="K13">
-        <v>0.5554402443554523</v>
+        <v>0.3916385530039506</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1673801171061591</v>
       </c>
       <c r="M13">
-        <v>6.201600567522291</v>
+        <v>0.1384252212939714</v>
       </c>
       <c r="N13">
-        <v>0.04668449125929008</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.010319849148573</v>
+        <v>6.214376974146148</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.04599200546175908</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9918280335783223</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1227078740582783</v>
+        <v>0.08919238188777712</v>
       </c>
       <c r="D14">
-        <v>0.117923188821095</v>
+        <v>0.1429445541421188</v>
       </c>
       <c r="E14">
-        <v>0.0374917468605791</v>
+        <v>0.03602085957410761</v>
       </c>
       <c r="F14">
-        <v>0.6025826597006798</v>
+        <v>0.4539811764357893</v>
       </c>
       <c r="G14">
-        <v>0.459887145336026</v>
+        <v>0.3671621798096112</v>
       </c>
       <c r="H14">
-        <v>0.1624967527549046</v>
+        <v>0.1624990312046179</v>
       </c>
       <c r="I14">
-        <v>0.002695674091019562</v>
+        <v>0.003023266419735826</v>
       </c>
       <c r="J14">
-        <v>0.3551707189511433</v>
+        <v>0.2578675067163232</v>
       </c>
       <c r="K14">
-        <v>0.4853811604850762</v>
+        <v>0.3509331305845365</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1545393420497128</v>
       </c>
       <c r="M14">
-        <v>6.143087249079201</v>
+        <v>0.1201134881865613</v>
       </c>
       <c r="N14">
-        <v>0.05971210697124718</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9412318720220654</v>
+        <v>6.155896702430368</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05805628337238034</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.9250041025065983</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1184301484960173</v>
+        <v>0.08625293790354505</v>
       </c>
       <c r="D15">
-        <v>0.1197921884830748</v>
+        <v>0.1437649849638376</v>
       </c>
       <c r="E15">
-        <v>0.03730500776955337</v>
+        <v>0.03618093319065974</v>
       </c>
       <c r="F15">
-        <v>0.5810429168636588</v>
+        <v>0.4422916328326352</v>
       </c>
       <c r="G15">
-        <v>0.4399461006486547</v>
+        <v>0.3488079631981194</v>
       </c>
       <c r="H15">
-        <v>0.175017285388094</v>
+        <v>0.1750150593014723</v>
       </c>
       <c r="I15">
-        <v>0.002620256885014882</v>
+        <v>0.003002131316312884</v>
       </c>
       <c r="J15">
-        <v>0.3457272299037726</v>
+        <v>0.2597517740020692</v>
       </c>
       <c r="K15">
-        <v>0.4675178936921256</v>
+        <v>0.341973090067377</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1520267526370596</v>
       </c>
       <c r="M15">
-        <v>6.088835311441528</v>
+        <v>0.1155665339978995</v>
       </c>
       <c r="N15">
-        <v>0.06387812874399756</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.918341113298716</v>
+        <v>6.101978486686335</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06210045849931589</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.90269122138141</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1119843182015643</v>
+        <v>0.07978989079673937</v>
       </c>
       <c r="D16">
-        <v>0.1142523082333256</v>
+        <v>0.1332260491257387</v>
       </c>
       <c r="E16">
-        <v>0.03602434898075435</v>
+        <v>0.03510357133451203</v>
       </c>
       <c r="F16">
-        <v>0.5681486140163514</v>
+        <v>0.4514954930123167</v>
       </c>
       <c r="G16">
-        <v>0.4351619391098467</v>
+        <v>0.331598598477413</v>
       </c>
       <c r="H16">
-        <v>0.1624241899613565</v>
+        <v>0.1623669137707395</v>
       </c>
       <c r="I16">
-        <v>0.002007861669078181</v>
+        <v>0.002481153779854139</v>
       </c>
       <c r="J16">
-        <v>0.3486733113569613</v>
+        <v>0.2967489518720825</v>
       </c>
       <c r="K16">
-        <v>0.4639288925652991</v>
+        <v>0.353709011228748</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1590768567345897</v>
       </c>
       <c r="M16">
-        <v>5.704008103220815</v>
+        <v>0.1156454310946842</v>
       </c>
       <c r="N16">
-        <v>0.0606638220204907</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8626902019997331</v>
+        <v>5.720048813131143</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05969556889088068</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.8473779808204966</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1142504447094481</v>
+        <v>0.07940254292974913</v>
       </c>
       <c r="D17">
-        <v>0.1052935406534701</v>
+        <v>0.1220823674663762</v>
       </c>
       <c r="E17">
-        <v>0.03563318994125869</v>
+        <v>0.03409256636961722</v>
       </c>
       <c r="F17">
-        <v>0.5999744349441158</v>
+        <v>0.4838800251772568</v>
       </c>
       <c r="G17">
-        <v>0.4718324993012146</v>
+        <v>0.3534788746769095</v>
       </c>
       <c r="H17">
-        <v>0.1247930499762191</v>
+        <v>0.1246847616215234</v>
       </c>
       <c r="I17">
-        <v>0.001823477313696031</v>
+        <v>0.002303231421339369</v>
       </c>
       <c r="J17">
-        <v>0.3711622905674119</v>
+        <v>0.329455738231033</v>
       </c>
       <c r="K17">
-        <v>0.4971845613189743</v>
+        <v>0.3834782196714279</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1715679742157334</v>
       </c>
       <c r="M17">
-        <v>5.441056982008661</v>
+        <v>0.1246279677218283</v>
       </c>
       <c r="N17">
-        <v>0.04979234022967916</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8562908457676528</v>
+        <v>5.458933109926249</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05002612691531638</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8402296101495494</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1257856456310265</v>
+        <v>0.08471890606286081</v>
       </c>
       <c r="D18">
-        <v>0.09297173076211607</v>
+        <v>0.1088778135046127</v>
       </c>
       <c r="E18">
-        <v>0.03956661933349093</v>
+        <v>0.03641915617542812</v>
       </c>
       <c r="F18">
-        <v>0.6796080061446474</v>
+        <v>0.5474877965095786</v>
       </c>
       <c r="G18">
-        <v>0.5558835671239279</v>
+        <v>0.4123086812499821</v>
       </c>
       <c r="H18">
-        <v>0.07200743894678396</v>
+        <v>0.07188646956393541</v>
       </c>
       <c r="I18">
-        <v>0.00154996711746147</v>
+        <v>0.001974402984479262</v>
       </c>
       <c r="J18">
-        <v>0.4166909852258698</v>
+        <v>0.3702678922622056</v>
       </c>
       <c r="K18">
-        <v>0.5728942011868838</v>
+        <v>0.4394479153278468</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1930176165461646</v>
       </c>
       <c r="M18">
-        <v>5.253122293561262</v>
+        <v>0.1447843054384137</v>
       </c>
       <c r="N18">
-        <v>0.03980532341173593</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8921543065434392</v>
+        <v>5.272632014860221</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.04195070031666326</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8740209882279331</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1438519094887027</v>
+        <v>0.09389120581599286</v>
       </c>
       <c r="D19">
-        <v>0.0808180035061099</v>
+        <v>0.09636613558044616</v>
       </c>
       <c r="E19">
-        <v>0.05195135022844077</v>
+        <v>0.04622947182907922</v>
       </c>
       <c r="F19">
-        <v>0.791871425396323</v>
+        <v>0.6320344522260726</v>
       </c>
       <c r="G19">
-        <v>0.6743977621029416</v>
+        <v>0.4964129653861562</v>
       </c>
       <c r="H19">
-        <v>0.02663860696811327</v>
+        <v>0.02654965148304456</v>
       </c>
       <c r="I19">
-        <v>0.001714078900614702</v>
+        <v>0.00216319105375895</v>
       </c>
       <c r="J19">
-        <v>0.4783459404754069</v>
+        <v>0.4173129125922515</v>
       </c>
       <c r="K19">
-        <v>0.6789866724166203</v>
+        <v>0.5138632034640835</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2205849852249102</v>
       </c>
       <c r="M19">
-        <v>5.140737223606379</v>
+        <v>0.1730234014643948</v>
       </c>
       <c r="N19">
-        <v>0.04392534079870991</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9595860957554905</v>
+        <v>5.161658467622658</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.0488020327974823</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9383443635621802</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1824626935873681</v>
+        <v>0.1154055629549617</v>
       </c>
       <c r="D20">
-        <v>0.06771876515340836</v>
+        <v>0.08388525809399994</v>
       </c>
       <c r="E20">
-        <v>0.08695844363256455</v>
+        <v>0.07601164533055282</v>
       </c>
       <c r="F20">
-        <v>1.002078370726267</v>
+        <v>0.7788569125988261</v>
       </c>
       <c r="G20">
-        <v>0.8954956156703702</v>
+        <v>0.6575291109014927</v>
       </c>
       <c r="H20">
-        <v>0.0001331717873638283</v>
+        <v>0.000129444690203151</v>
       </c>
       <c r="I20">
-        <v>0.002324516810856103</v>
+        <v>0.002751477271387692</v>
       </c>
       <c r="J20">
-        <v>0.5881064381153465</v>
+        <v>0.4782363832383822</v>
       </c>
       <c r="K20">
-        <v>0.876455081662634</v>
+        <v>0.6427366312726903</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2645763703812989</v>
       </c>
       <c r="M20">
-        <v>5.24133144770741</v>
+        <v>0.2267348144911026</v>
       </c>
       <c r="N20">
-        <v>0.08513004624298048</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.116003187123383</v>
+        <v>5.263069247223825</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.0947065464266359</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.088518427228422</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2069817887692835</v>
+        <v>0.1355722765052434</v>
       </c>
       <c r="D21">
-        <v>0.0704574969256484</v>
+        <v>0.09397880572387152</v>
       </c>
       <c r="E21">
-        <v>0.09918536625846386</v>
+        <v>0.08667442215431365</v>
       </c>
       <c r="F21">
-        <v>1.098489701929523</v>
+        <v>0.7976604920899177</v>
       </c>
       <c r="G21">
-        <v>0.9812742388003102</v>
+        <v>0.7669029519669976</v>
       </c>
       <c r="H21">
-        <v>0.0003060640548233629</v>
+        <v>0.0002240081148914275</v>
       </c>
       <c r="I21">
-        <v>0.004274696495942365</v>
+        <v>0.004325687029934855</v>
       </c>
       <c r="J21">
-        <v>0.6216856354483298</v>
+        <v>0.3818068666321608</v>
       </c>
       <c r="K21">
-        <v>0.9522421068771365</v>
+        <v>0.652079487109944</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2578360342017234</v>
       </c>
       <c r="M21">
-        <v>5.894595929626519</v>
+        <v>0.2436369996688867</v>
       </c>
       <c r="N21">
-        <v>0.09733230241209156</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.266253476049968</v>
+        <v>5.910967039343802</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.1060062836285383</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.236139139015052</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2228175035898374</v>
+        <v>0.1494855206881454</v>
       </c>
       <c r="D22">
-        <v>0.07254434159802514</v>
+        <v>0.1013796873162462</v>
       </c>
       <c r="E22">
-        <v>0.1054670995268552</v>
+        <v>0.09221996360962592</v>
       </c>
       <c r="F22">
-        <v>1.158139337956783</v>
+        <v>0.8048175969699827</v>
       </c>
       <c r="G22">
-        <v>1.033453845731415</v>
+        <v>0.8432403088571192</v>
       </c>
       <c r="H22">
-        <v>0.000939929362143932</v>
+        <v>0.0006864388906264729</v>
       </c>
       <c r="I22">
-        <v>0.005852484100394406</v>
+        <v>0.005390883559106108</v>
       </c>
       <c r="J22">
-        <v>0.6416919093345541</v>
+        <v>0.3220111702703363</v>
       </c>
       <c r="K22">
-        <v>0.9982014096244782</v>
+        <v>0.6537797829421947</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2519519293420842</v>
       </c>
       <c r="M22">
-        <v>6.3272199707298</v>
+        <v>0.2533394992923519</v>
       </c>
       <c r="N22">
-        <v>0.1023619731717673</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.359697389013178</v>
+        <v>6.33921729282315</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.1101004709141833</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.328167341442949</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2157082965385513</v>
+        <v>0.1423535502476341</v>
       </c>
       <c r="D23">
-        <v>0.07114937109510322</v>
+        <v>0.09653984212285138</v>
       </c>
       <c r="E23">
-        <v>0.1023414294954925</v>
+        <v>0.08935680783898547</v>
       </c>
       <c r="F23">
-        <v>1.130722006533261</v>
+        <v>0.8092070418965562</v>
       </c>
       <c r="G23">
-        <v>1.010467876414268</v>
+        <v>0.799062955139064</v>
       </c>
       <c r="H23">
-        <v>0.0005644629340024743</v>
+        <v>0.0004151759915915765</v>
       </c>
       <c r="I23">
-        <v>0.004685269598599717</v>
+        <v>0.004458679392691955</v>
       </c>
       <c r="J23">
-        <v>0.6334726178547641</v>
+        <v>0.364871173289032</v>
       </c>
       <c r="K23">
-        <v>0.9784127263987727</v>
+        <v>0.6598855518778493</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2574918774048172</v>
       </c>
       <c r="M23">
-        <v>6.095891653490867</v>
+        <v>0.2509949073993809</v>
       </c>
       <c r="N23">
-        <v>0.09956729302520273</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.310391076820466</v>
+        <v>6.110758767403638</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.1079386796767423</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.279251270871512</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1867524285733424</v>
+        <v>0.1178492338400687</v>
       </c>
       <c r="D24">
-        <v>0.06631345939680955</v>
+        <v>0.08218635288167775</v>
       </c>
       <c r="E24">
-        <v>0.09020592337513378</v>
+        <v>0.07882484799864997</v>
       </c>
       <c r="F24">
-        <v>1.02243498373754</v>
+        <v>0.7946834693678255</v>
       </c>
       <c r="G24">
-        <v>0.9181058811967802</v>
+        <v>0.6738305630162529</v>
       </c>
       <c r="H24">
-        <v>8.904218761651705E-06</v>
+        <v>6.324477863195455E-06</v>
       </c>
       <c r="I24">
-        <v>0.001871724069490988</v>
+        <v>0.002195583426669145</v>
       </c>
       <c r="J24">
-        <v>0.5997422157648202</v>
+        <v>0.4877591148945726</v>
       </c>
       <c r="K24">
-        <v>0.8971835225405158</v>
+        <v>0.6578812882573501</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2702137261722228</v>
       </c>
       <c r="M24">
-        <v>5.22320063812208</v>
+        <v>0.2324567629212169</v>
       </c>
       <c r="N24">
-        <v>0.08924571031679918</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.123312313723218</v>
+        <v>5.245089950965962</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.09923491539154128</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.095387959505437</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1557914678444519</v>
+        <v>0.09798957652968454</v>
       </c>
       <c r="D25">
-        <v>0.06105113505570614</v>
+        <v>0.07214588093005858</v>
       </c>
       <c r="E25">
-        <v>0.07723231976514455</v>
+        <v>0.06842715481994865</v>
       </c>
       <c r="F25">
-        <v>0.9113077318023244</v>
+        <v>0.7291631988870222</v>
       </c>
       <c r="G25">
-        <v>0.8238819937219972</v>
+        <v>0.6187052048725974</v>
       </c>
       <c r="H25">
-        <v>0.001078982315620758</v>
+        <v>0.0008385423607968345</v>
       </c>
       <c r="I25">
-        <v>0.001125046655484851</v>
+        <v>0.00129625981520487</v>
       </c>
       <c r="J25">
-        <v>0.5663102512309592</v>
+        <v>0.4831045067720936</v>
       </c>
       <c r="K25">
-        <v>0.8126019108372375</v>
+        <v>0.6173772331281242</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2698781467104325</v>
       </c>
       <c r="M25">
-        <v>4.286416877913894</v>
+        <v>0.1997705153049942</v>
       </c>
       <c r="N25">
-        <v>0.07824625820232001</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9225118893170361</v>
+        <v>4.308729561477321</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.08845832797621966</v>
       </c>
       <c r="Q25">
+        <v>0.9009665844480423</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
